--- a/teams.xlsx
+++ b/teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <si>
     <t>Team_id</t>
   </si>
@@ -28,12 +28,12 @@
     <t>Sporting CP</t>
   </si>
   <si>
+    <t>SL Benfica</t>
+  </si>
+  <si>
     <t>FC Porto</t>
   </si>
   <si>
-    <t>SL Benfica</t>
-  </si>
-  <si>
     <t>Vitória Guimarães SC</t>
   </si>
   <si>
@@ -46,84 +46,84 @@
     <t>SC Braga</t>
   </si>
   <si>
+    <t>Boavista FC</t>
+  </si>
+  <si>
+    <t>Académica Coimbra</t>
+  </si>
+  <si>
+    <t>CS Marítimo</t>
+  </si>
+  <si>
+    <t>Rio Ave FC</t>
+  </si>
+  <si>
+    <t>SC Beira-Mar</t>
+  </si>
+  <si>
+    <t>SC Farense</t>
+  </si>
+  <si>
+    <t>Leixões SC</t>
+  </si>
+  <si>
+    <t>Varzim SC</t>
+  </si>
+  <si>
+    <t>SC Salgueiros</t>
+  </si>
+  <si>
+    <t>CD da CUF Barreiro</t>
+  </si>
+  <si>
+    <t>FC Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>CD Nacional</t>
+  </si>
+  <si>
+    <t>GD Estoril Praia</t>
+  </si>
+  <si>
+    <t>União de Leiria</t>
+  </si>
+  <si>
+    <t>Portimonense SC</t>
+  </si>
+  <si>
+    <t>CF Estrela Amadora SAD</t>
+  </si>
+  <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
+    <t>FC Barreirense</t>
+  </si>
+  <si>
+    <t>FC Penafiel</t>
+  </si>
+  <si>
+    <t>Atlético CP</t>
+  </si>
+  <si>
+    <t>SC Espinho</t>
+  </si>
+  <si>
+    <t>Lusitano GC</t>
+  </si>
+  <si>
+    <t>Moreirense FC</t>
+  </si>
+  <si>
+    <t>SC Olhanense</t>
+  </si>
+  <si>
     <t>nan</t>
   </si>
   <si>
-    <t>Boavista FC</t>
-  </si>
-  <si>
-    <t>Académica Coimbra</t>
-  </si>
-  <si>
-    <t>CS Marítimo</t>
-  </si>
-  <si>
-    <t>Rio Ave FC</t>
-  </si>
-  <si>
-    <t>SC Beira-Mar</t>
-  </si>
-  <si>
-    <t>SC Farense</t>
-  </si>
-  <si>
-    <t>Leixões SC</t>
-  </si>
-  <si>
-    <t>Varzim SC</t>
-  </si>
-  <si>
-    <t>SC Salgueiros</t>
-  </si>
-  <si>
-    <t>FC Paços de Ferreira</t>
-  </si>
-  <si>
-    <t>CD da CUF Barreiro</t>
-  </si>
-  <si>
-    <t>Gil Vicente FC</t>
-  </si>
-  <si>
-    <t>CD Nacional</t>
-  </si>
-  <si>
-    <t>GD Estoril Praia</t>
-  </si>
-  <si>
-    <t>Portimonense SC</t>
-  </si>
-  <si>
-    <t>União de Leiria</t>
-  </si>
-  <si>
-    <t>CF Estrela Amadora SAD</t>
-  </si>
-  <si>
-    <t>GD Chaves</t>
-  </si>
-  <si>
-    <t>FC Barreirense</t>
-  </si>
-  <si>
-    <t>FC Penafiel</t>
-  </si>
-  <si>
-    <t>Atlético CP</t>
-  </si>
-  <si>
-    <t>Lusitano GC</t>
-  </si>
-  <si>
-    <t>SC Espinho</t>
-  </si>
-  <si>
-    <t>Moreirense FC</t>
-  </si>
-  <si>
-    <t>SC Olhanense</t>
-  </si>
-  <si>
     <t>FC Tirsense</t>
   </si>
   <si>
@@ -136,117 +136,117 @@
     <t>CD Feirense</t>
   </si>
   <si>
+    <t>União Tomar</t>
+  </si>
+  <si>
+    <t>CF União Madeira</t>
+  </si>
+  <si>
+    <t>União Torreense</t>
+  </si>
+  <si>
+    <t>Desportivo Aves</t>
+  </si>
+  <si>
+    <t>CD Santa Clara</t>
+  </si>
+  <si>
     <t>CD Tondela</t>
   </si>
   <si>
-    <t>União Torreense</t>
-  </si>
-  <si>
-    <t>União Tomar</t>
-  </si>
-  <si>
-    <t>CD Santa Clara</t>
-  </si>
-  <si>
-    <t>CF União Madeira</t>
-  </si>
-  <si>
-    <t>Desportivo Aves</t>
+    <t>FC Alverca</t>
   </si>
   <si>
     <t>SC Campomaiorense</t>
   </si>
   <si>
-    <t>FC Alverca</t>
-  </si>
-  <si>
     <t>Naval 1º de Maio</t>
   </si>
   <si>
+    <t>Oriental de Lisboa</t>
+  </si>
+  <si>
     <t>Académico de Viseu</t>
   </si>
   <si>
-    <t>Oriental de Lisboa</t>
-  </si>
-  <si>
     <t>FC Arouca</t>
   </si>
   <si>
     <t>Caldas SC</t>
   </si>
   <si>
+    <t>Montijo</t>
+  </si>
+  <si>
+    <t>Amora FC</t>
+  </si>
+  <si>
     <t>Leça FC</t>
   </si>
   <si>
-    <t>Montijo</t>
-  </si>
-  <si>
     <t>AD Sanjoanense</t>
   </si>
   <si>
-    <t>Amora FC</t>
+    <t>O Elvas</t>
   </si>
   <si>
     <t>Seixal</t>
   </si>
   <si>
-    <t>O Elvas</t>
+    <t>FC Vizela</t>
+  </si>
+  <si>
+    <t>União Coimbra</t>
+  </si>
+  <si>
+    <t>CD Trofense</t>
+  </si>
+  <si>
+    <t>FC Felgueiras 1932</t>
+  </si>
+  <si>
+    <t>AD Fafe</t>
+  </si>
+  <si>
+    <t>R.D. Águeda</t>
   </si>
   <si>
     <t>GC Alcobaça</t>
   </si>
   <si>
-    <t>CD Trofense</t>
-  </si>
-  <si>
-    <t>FC Vizela</t>
-  </si>
-  <si>
-    <t>FC Felgueiras 1932</t>
-  </si>
-  <si>
-    <t>União Coimbra</t>
-  </si>
-  <si>
     <t>GD Riopele</t>
   </si>
   <si>
-    <t>AD Fafe</t>
-  </si>
-  <si>
-    <t>R.D. Águeda</t>
+    <t>São Paulo FC</t>
+  </si>
+  <si>
+    <t>Flamengo RJ</t>
   </si>
   <si>
     <t>Fluminense RJ</t>
   </si>
   <si>
-    <t>São Paulo FC</t>
-  </si>
-  <si>
     <t>Santos FC</t>
   </si>
   <si>
-    <t>Flamengo RJ</t>
-  </si>
-  <si>
     <t>Athletico Paranaense</t>
   </si>
   <si>
+    <t>Corinthians SP</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
     <t>Internacional</t>
   </si>
   <si>
-    <t>Corinthians SP</t>
+    <t>Grêmio Porto Alegre</t>
   </si>
   <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Grêmio Porto Alegre</t>
-  </si>
-  <si>
-    <t>Atlético Mineiro</t>
-  </si>
-  <si>
     <t>Botafogo - RJ</t>
   </si>
   <si>
@@ -271,90 +271,90 @@
     <t>Sport - PE</t>
   </si>
   <si>
+    <t>Bahia - BA</t>
+  </si>
+  <si>
     <t>Ponte Preta</t>
   </si>
   <si>
-    <t>Bahia - BA</t>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Paraná Clube</t>
   </si>
   <si>
     <t>Avaí - SC</t>
   </si>
   <si>
-    <t>Chapecoense</t>
-  </si>
-  <si>
-    <t>Paraná Clube</t>
+    <t>Ceará - CE</t>
   </si>
   <si>
     <t>Juventude - RS</t>
   </si>
   <si>
-    <t>Ceará - CE</t>
-  </si>
-  <si>
     <t>Fortaleza</t>
   </si>
   <si>
+    <t>Náutico - PE</t>
+  </si>
+  <si>
     <t>Atlético Goianiense</t>
   </si>
   <si>
-    <t>Náutico - PE</t>
+    <t>São Caetano - SP</t>
   </si>
   <si>
     <t>Criciúma - SC</t>
   </si>
   <si>
-    <t>São Caetano - SP</t>
-  </si>
-  <si>
     <t>Paysandu - PA</t>
   </si>
   <si>
+    <t>Portuguesa - SP</t>
+  </si>
+  <si>
     <t>Guarani - SP</t>
   </si>
   <si>
-    <t>Portuguesa - SP</t>
-  </si>
-  <si>
     <t>América - MG</t>
   </si>
   <si>
     <t>Santa Cruz - PE</t>
   </si>
   <si>
+    <t>Joinville - SC</t>
+  </si>
+  <si>
+    <t>Red Bull Bragantino</t>
+  </si>
+  <si>
+    <t>América - RN</t>
+  </si>
+  <si>
+    <t>CSA - AL</t>
+  </si>
+  <si>
+    <t>Ipatinga FC</t>
+  </si>
+  <si>
+    <t>Grêmio Barueri - SP</t>
+  </si>
+  <si>
     <t>Grêmio Prudente</t>
   </si>
   <si>
-    <t>Red Bull Bragantino</t>
-  </si>
-  <si>
-    <t>América - RN</t>
-  </si>
-  <si>
-    <t>Joinville - SC</t>
-  </si>
-  <si>
-    <t>CSA - AL</t>
-  </si>
-  <si>
-    <t>Grêmio Barueri - SP</t>
-  </si>
-  <si>
-    <t>Ipatinga FC</t>
+    <t>Brasiliense - DF</t>
   </si>
   <si>
     <t>Santo André - SP</t>
   </si>
   <si>
-    <t>Brasiliense - DF</t>
+    <t>Ajax Amsterdam</t>
   </si>
   <si>
     <t>PSV Eindhoven</t>
   </si>
   <si>
-    <t>Ajax Amsterdam</t>
-  </si>
-  <si>
     <t>Sparta Rotterdam</t>
   </si>
   <si>
@@ -391,36 +391,36 @@
     <t>MVV Maastricht</t>
   </si>
   <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
     <t>Go Ahead Eagles</t>
   </si>
   <si>
-    <t>ADO Den Haag</t>
-  </si>
-  <si>
     <t>sc Heerenveen</t>
   </si>
   <si>
+    <t>FC Volendam</t>
+  </si>
+  <si>
     <t>RKC Waalwijk</t>
   </si>
   <si>
-    <t>FC Volendam</t>
-  </si>
-  <si>
     <t>VVV-Venlo</t>
   </si>
   <si>
     <t>SBV Excelsior</t>
   </si>
   <si>
+    <t>De Graafschap</t>
+  </si>
+  <si>
     <t>Heracles Almelo</t>
   </si>
   <si>
     <t>Fortuna Sittard</t>
   </si>
   <si>
-    <t>De Graafschap</t>
-  </si>
-  <si>
     <t>Feijenoord</t>
   </si>
   <si>
@@ -430,12 +430,12 @@
     <t>Telstar</t>
   </si>
   <si>
+    <t>DWS Amsterdam</t>
+  </si>
+  <si>
     <t>PEC Zwolle</t>
   </si>
   <si>
-    <t>DWS Amsterdam</t>
-  </si>
-  <si>
     <t>Fortuna '54</t>
   </si>
   <si>
@@ -445,45 +445,45 @@
     <t>Sportclub Enschede</t>
   </si>
   <si>
+    <t>SBV Haarlem</t>
+  </si>
+  <si>
     <t>HFC Haarlem</t>
   </si>
   <si>
-    <t>SBV Haarlem</t>
-  </si>
-  <si>
     <t>USV Elinkwijk</t>
   </si>
   <si>
+    <t>SC Cambuur</t>
+  </si>
+  <si>
     <t>Groninger VAV</t>
   </si>
   <si>
-    <t>SC Cambuur</t>
-  </si>
-  <si>
     <t>FC Den Bosch '67</t>
   </si>
   <si>
+    <t>PEC Zwolle '82</t>
+  </si>
+  <si>
     <t>FC Amsterdam</t>
   </si>
   <si>
+    <t>Blauw Wit</t>
+  </si>
+  <si>
     <t>Rapid JC Heerlen</t>
   </si>
   <si>
-    <t>PEC Zwolle '82</t>
-  </si>
-  <si>
-    <t>Blauw Wit</t>
+    <t>GVAV Groningen</t>
+  </si>
+  <si>
+    <t>RBC Roosendaal</t>
   </si>
   <si>
     <t>FC Den Haag-ADO</t>
   </si>
   <si>
-    <t>RBC Roosendaal</t>
-  </si>
-  <si>
-    <t>GVAV Groningen</t>
-  </si>
-  <si>
     <t>Sittardia</t>
   </si>
   <si>
@@ -493,72 +493,72 @@
     <t>NOAD Tilburg</t>
   </si>
   <si>
+    <t>FC Emmen</t>
+  </si>
+  <si>
+    <t>SC Eindhoven</t>
+  </si>
+  <si>
     <t>Holland Sport</t>
   </si>
   <si>
-    <t>FC Emmen</t>
-  </si>
-  <si>
-    <t>SC Eindhoven</t>
+    <t>BVV</t>
+  </si>
+  <si>
+    <t>SVV Schiedam</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>BV Veendam</t>
+  </si>
+  <si>
+    <t>FC Zwolle</t>
+  </si>
+  <si>
+    <t>Drechtsteden '79</t>
+  </si>
+  <si>
+    <t>Dordrecht '90</t>
+  </si>
+  <si>
+    <t>BVC Amsterdam</t>
   </si>
   <si>
     <t>De Volewijckers</t>
   </si>
   <si>
-    <t>BVV</t>
-  </si>
-  <si>
-    <t>FC Zwolle</t>
-  </si>
-  <si>
-    <t>Dordrecht '90</t>
-  </si>
-  <si>
-    <t>BVC Amsterdam</t>
-  </si>
-  <si>
     <t>BVV Den Bosch</t>
   </si>
   <si>
-    <t>SVV Schiedam</t>
-  </si>
-  <si>
-    <t>Drechtsteden '79</t>
-  </si>
-  <si>
-    <t>BV Veendam</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
+    <t>VV Alkmaar '54</t>
+  </si>
+  <si>
+    <t>FC Xerxes</t>
+  </si>
+  <si>
+    <t>FC Wageningen</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>WVV Wageningen</t>
+  </si>
+  <si>
+    <t>FSC Geleen</t>
+  </si>
+  <si>
+    <t>SHS</t>
   </si>
   <si>
     <t>Xerxes/D.H.C.</t>
   </si>
   <si>
-    <t>FC Dordrecht</t>
-  </si>
-  <si>
     <t>S.V.V./Dordrecht '90</t>
   </si>
   <si>
-    <t>WVV Wageningen</t>
-  </si>
-  <si>
-    <t>FSC Geleen</t>
-  </si>
-  <si>
-    <t>SHS</t>
-  </si>
-  <si>
-    <t>FC Xerxes</t>
-  </si>
-  <si>
-    <t>VV Alkmaar '54</t>
-  </si>
-  <si>
-    <t>FC Wageningen</t>
-  </si>
-  <si>
     <t>SV Werder Bremen</t>
   </si>
   <si>
@@ -604,24 +604,24 @@
     <t>Hannover 96</t>
   </si>
   <si>
+    <t>VfL Wolfsburg</t>
+  </si>
+  <si>
     <t>Fortuna Düsseldorf</t>
   </si>
   <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
     <t>MSV Duisburg</t>
   </si>
   <si>
-    <t>VfL Wolfsburg</t>
-  </si>
-  <si>
-    <t>Karlsruher SC</t>
+    <t>SC Freiburg</t>
   </si>
   <si>
     <t>Eintracht Braunschweig</t>
   </si>
   <si>
-    <t>SC Freiburg</t>
-  </si>
-  <si>
     <t>TSV 1860 Munich</t>
   </si>
   <si>
@@ -634,27 +634,27 @@
     <t>TSG 1899 Hoffenheim</t>
   </si>
   <si>
+    <t>Bay. Uerdingen</t>
+  </si>
+  <si>
     <t>FC Hansa Rostock</t>
   </si>
   <si>
-    <t>Bay. Uerdingen</t>
-  </si>
-  <si>
     <t>FC Augsburg</t>
   </si>
   <si>
     <t>FC St. Pauli</t>
   </si>
   <si>
+    <t>RW Essen</t>
+  </si>
+  <si>
     <t>Waldh. Mannheim</t>
   </si>
   <si>
     <t>K. Offenbach</t>
   </si>
   <si>
-    <t>RW Essen</t>
-  </si>
-  <si>
     <t>FC Energie Cottbus</t>
   </si>
   <si>
@@ -664,78 +664,78 @@
     <t>Saarbrücken</t>
   </si>
   <si>
+    <t>RW Oberhausen</t>
+  </si>
+  <si>
+    <t>Alemannia Aachen</t>
+  </si>
+  <si>
+    <t>SV Darmstadt 98</t>
+  </si>
+  <si>
     <t>Wattenscheid 09</t>
   </si>
   <si>
-    <t>SV Darmstadt 98</t>
-  </si>
-  <si>
-    <t>RW Oberhausen</t>
-  </si>
-  <si>
-    <t>Alemannia Aachen</t>
-  </si>
-  <si>
     <t>Meidericher SV</t>
   </si>
   <si>
+    <t>B. Neunkirchen</t>
+  </si>
+  <si>
     <t>Dynamo Dresden</t>
   </si>
   <si>
+    <t>FC 08 Homburg</t>
+  </si>
+  <si>
     <t>Wuppertaler SV</t>
   </si>
   <si>
-    <t>FC 08 Homburg</t>
-  </si>
-  <si>
-    <t>B. Neunkirchen</t>
+    <t>1.FC Union Berlin</t>
+  </si>
+  <si>
+    <t>FC Ingolstadt 04</t>
+  </si>
+  <si>
+    <t>Stuttg. Kickers</t>
+  </si>
+  <si>
+    <t>TeBe Berlin</t>
   </si>
   <si>
     <t>SC Paderborn 07</t>
   </si>
   <si>
-    <t>TeBe Berlin</t>
-  </si>
-  <si>
-    <t>FC Ingolstadt 04</t>
+    <t>SpVgg Unterhaching</t>
+  </si>
+  <si>
+    <t>Arm. Bielefeld *</t>
+  </si>
+  <si>
+    <t>Preußen Münster</t>
+  </si>
+  <si>
+    <t>VfB Leipzig</t>
+  </si>
+  <si>
+    <t>SC Fortuna Köln</t>
+  </si>
+  <si>
+    <t>SpVgg Greuther Fürth</t>
+  </si>
+  <si>
+    <t>SSV Ulm 1846</t>
+  </si>
+  <si>
+    <t>Tasmania Berlin</t>
+  </si>
+  <si>
+    <t>Dynamo Dresden *</t>
   </si>
   <si>
     <t>KFC Uerdingen 05</t>
   </si>
   <si>
-    <t>SpVgg Unterhaching</t>
-  </si>
-  <si>
-    <t>Stuttg. Kickers</t>
-  </si>
-  <si>
-    <t>1.FC Union Berlin</t>
-  </si>
-  <si>
-    <t>SC Fortuna Köln</t>
-  </si>
-  <si>
-    <t>SpVgg Greuther Fürth</t>
-  </si>
-  <si>
-    <t>Arm. Bielefeld *</t>
-  </si>
-  <si>
-    <t>Dynamo Dresden *</t>
-  </si>
-  <si>
-    <t>SSV Ulm 1846</t>
-  </si>
-  <si>
-    <t>VfB Leipzig</t>
-  </si>
-  <si>
-    <t>Preußen Münster</t>
-  </si>
-  <si>
-    <t>Tasmania Berlin</t>
-  </si>
-  <si>
     <t>BW Berlin</t>
   </si>
   <si>
@@ -754,24 +754,24 @@
     <t>FC Sochaux</t>
   </si>
   <si>
+    <t>Olympique Lyon</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
     <t>Stade Rennais FC</t>
   </si>
   <si>
-    <t>Olympique Lyon</t>
-  </si>
-  <si>
     <t>OGC Nice</t>
   </si>
   <si>
+    <t>FC Metz</t>
+  </si>
+  <si>
     <t>RC Strasbourg</t>
   </si>
   <si>
-    <t>FC Metz</t>
-  </si>
-  <si>
     <t>RC Lens</t>
   </si>
   <si>
@@ -793,12 +793,12 @@
     <t>Nîmes Olympique</t>
   </si>
   <si>
+    <t>Stade Reims</t>
+  </si>
+  <si>
     <t>SC Bastia</t>
   </si>
   <si>
-    <t>Stade Reims</t>
-  </si>
-  <si>
     <t>AJ Auxerre</t>
   </si>
   <si>
@@ -823,30 +823,30 @@
     <t>AS Cannes</t>
   </si>
   <si>
+    <t>Stade Brest</t>
+  </si>
+  <si>
     <t>FC Sète</t>
   </si>
   <si>
-    <t>Stade Brest</t>
+    <t>FC Lorient</t>
   </si>
   <si>
     <t>AC Ajaccio</t>
   </si>
   <si>
-    <t>FC Lorient</t>
-  </si>
-  <si>
     <t>EA Guingamp</t>
   </si>
   <si>
     <t>Stade Laval</t>
   </si>
   <si>
+    <t>CS Sedan</t>
+  </si>
+  <si>
     <t>RC Roubaix</t>
   </si>
   <si>
-    <t>CS Sedan</t>
-  </si>
-  <si>
     <t>UA Sedan-Torcy</t>
   </si>
   <si>
@@ -856,129 +856,129 @@
     <t>SC Toulon</t>
   </si>
   <si>
+    <t>Red Star FC</t>
+  </si>
+  <si>
     <t>Valenciennes FC</t>
   </si>
   <si>
-    <t>Red Star FC</t>
-  </si>
-  <si>
     <t>ESTAC Troyes</t>
   </si>
   <si>
     <t>Le Mans UC 72</t>
   </si>
   <si>
+    <t>Dijon FCO</t>
+  </si>
+  <si>
     <t>Excelsior Roubaix</t>
   </si>
   <si>
     <t>FC Antibes</t>
   </si>
   <si>
+    <t>FC Mulhouse</t>
+  </si>
+  <si>
+    <t>Troyes AF</t>
+  </si>
+  <si>
     <t>Olympique Alès</t>
   </si>
   <si>
-    <t>Troyes AF</t>
-  </si>
-  <si>
-    <t>FC Mulhouse</t>
-  </si>
-  <si>
-    <t>Dijon FCO</t>
-  </si>
-  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
+    <t>FC Évian Thonon Gaillard</t>
+  </si>
+  <si>
     <t>Red Star Olympique</t>
   </si>
   <si>
     <t>Tours FC</t>
   </si>
   <si>
-    <t>FC Évian Thonon Gaillard</t>
-  </si>
-  <si>
     <t>AS Cannes-Grasse</t>
   </si>
   <si>
+    <t>Sporting Club de Toulon</t>
+  </si>
+  <si>
+    <t>FC Martigues</t>
+  </si>
+  <si>
+    <t>Limoges FC</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>AS Troyes-Savinienne</t>
+  </si>
+  <si>
+    <t>AS Angoulême</t>
+  </si>
+  <si>
     <t>Paris FC</t>
   </si>
   <si>
-    <t>FC Martigues</t>
-  </si>
-  <si>
-    <t>Limoges FC</t>
-  </si>
-  <si>
-    <t>Sporting Club de Toulon</t>
-  </si>
-  <si>
-    <t>AS Angoulême</t>
-  </si>
-  <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
-    <t>AS Troyes-Savinienne</t>
-  </si>
-  <si>
     <t>Red Star Olympique Audonien</t>
   </si>
   <si>
+    <t>SC Nimes</t>
+  </si>
+  <si>
+    <t>Stade Français</t>
+  </si>
+  <si>
+    <t>Stade Red Star</t>
+  </si>
+  <si>
     <t>Matra Racing</t>
   </si>
   <si>
-    <t>Stade Red Star</t>
-  </si>
-  <si>
-    <t>Stade Français</t>
-  </si>
-  <si>
-    <t>SC Nimes</t>
+    <t>GFC Ajaccio</t>
+  </si>
+  <si>
+    <t>FC Istres</t>
   </si>
   <si>
     <t>LB Châteauroux</t>
   </si>
   <si>
+    <t>Stade de Paris FC</t>
+  </si>
+  <si>
+    <t>SR Colmar</t>
+  </si>
+  <si>
+    <t>CS Metz</t>
+  </si>
+  <si>
+    <t>Association Sportive Avignonaise</t>
+  </si>
+  <si>
+    <t>Athlétic Club Arlésien</t>
+  </si>
+  <si>
+    <t>AS Béziers</t>
+  </si>
+  <si>
+    <t>Chamois Niortais</t>
+  </si>
+  <si>
     <t>FC Gueugnon</t>
   </si>
   <si>
-    <t>FC Istres</t>
+    <t>AS Aixoise</t>
+  </si>
+  <si>
+    <t>ATAC Troyes</t>
   </si>
   <si>
     <t>CA Paris (old)</t>
   </si>
   <si>
-    <t>Chamois Niortais</t>
-  </si>
-  <si>
-    <t>AS Béziers</t>
-  </si>
-  <si>
-    <t>ATAC Troyes</t>
-  </si>
-  <si>
-    <t>Association Sportive Avignonaise</t>
-  </si>
-  <si>
-    <t>GFC Ajaccio</t>
-  </si>
-  <si>
-    <t>Athlétic Club Arlésien</t>
-  </si>
-  <si>
-    <t>AS Aixoise</t>
-  </si>
-  <si>
-    <t>SR Colmar</t>
-  </si>
-  <si>
-    <t>Stade de Paris FC</t>
-  </si>
-  <si>
-    <t>CS Metz</t>
-  </si>
-  <si>
     <t>US Boulogne</t>
   </si>
   <si>
@@ -1039,57 +1039,57 @@
     <t>Brescia Calcio</t>
   </si>
   <si>
+    <t>Unione Triestina</t>
+  </si>
+  <si>
     <t>Lanerossi Vicenza</t>
   </si>
   <si>
-    <t>Unione Triestina</t>
-  </si>
-  <si>
     <t>SPAL 2013 Ferrara</t>
   </si>
   <si>
+    <t>Chievo Verona</t>
+  </si>
+  <si>
     <t>Calcio Catania</t>
   </si>
   <si>
-    <t>Chievo Verona</t>
+    <t>Calcio Padova</t>
+  </si>
+  <si>
+    <t>Ascoli Calcio 1898</t>
   </si>
   <si>
     <t>US Lecce</t>
   </si>
   <si>
-    <t>Ascoli Calcio 1898</t>
-  </si>
-  <si>
-    <t>Calcio Padova</t>
+    <t>US Alessandria 1912</t>
   </si>
   <si>
     <t>FC Empoli</t>
   </si>
   <si>
+    <t>AC Cesena</t>
+  </si>
+  <si>
     <t>AC Perugia</t>
   </si>
   <si>
     <t>Como Calcio</t>
   </si>
   <si>
-    <t>US Alessandria 1912</t>
-  </si>
-  <si>
-    <t>AC Cesena</t>
-  </si>
-  <si>
     <t>Aurora Pro Patria</t>
   </si>
   <si>
+    <t>Modena FC</t>
+  </si>
+  <si>
+    <t>US Foggia</t>
+  </si>
+  <si>
     <t>Novara Calcio 1908</t>
   </si>
   <si>
-    <t>US Foggia</t>
-  </si>
-  <si>
-    <t>Modena FC</t>
-  </si>
-  <si>
     <t>US Avellino</t>
   </si>
   <si>
@@ -1102,39 +1102,39 @@
     <t>AC Siena</t>
   </si>
   <si>
+    <t>Piacenza Calcio</t>
+  </si>
+  <si>
+    <t>US Sassuolo</t>
+  </si>
+  <si>
     <t>AC Venezia</t>
   </si>
   <si>
     <t>Lucchese</t>
   </si>
   <si>
-    <t>Piacenza Calcio</t>
-  </si>
-  <si>
-    <t>US Sassuolo</t>
+    <t>US Cremonese</t>
+  </si>
+  <si>
+    <t>Pescara Calcio</t>
+  </si>
+  <si>
+    <t>US Catanzaro</t>
+  </si>
+  <si>
+    <t>AC Mantova</t>
+  </si>
+  <si>
+    <t>Pisa SC</t>
+  </si>
+  <si>
+    <t>AS Varese 1910</t>
   </si>
   <si>
     <t>AC Venezia 1907</t>
   </si>
   <si>
-    <t>AS Varese 1910</t>
-  </si>
-  <si>
-    <t>Pisa SC</t>
-  </si>
-  <si>
-    <t>US Catanzaro</t>
-  </si>
-  <si>
-    <t>Pescara Calcio</t>
-  </si>
-  <si>
-    <t>AC Mantova</t>
-  </si>
-  <si>
-    <t>US Cremonese</t>
-  </si>
-  <si>
     <t>AS Livorno</t>
   </si>
   <si>
@@ -1144,22 +1144,34 @@
     <t>Casale</t>
   </si>
   <si>
+    <t>AC Reggiana</t>
+  </si>
+  <si>
+    <t>FC Messina</t>
+  </si>
+  <si>
+    <t>Calcio Lecco 1912</t>
+  </si>
+  <si>
+    <t>Sampierdarenese</t>
+  </si>
+  <si>
     <t>Legnano</t>
   </si>
   <si>
     <t>FC Crotone</t>
   </si>
   <si>
-    <t>FC Messina</t>
-  </si>
-  <si>
-    <t>Sampierdarenese</t>
-  </si>
-  <si>
-    <t>AC Reggiana</t>
-  </si>
-  <si>
-    <t>Calcio Lecco 1912</t>
+    <t>AC Liguria</t>
+  </si>
+  <si>
+    <t>Ternana Calcio</t>
+  </si>
+  <si>
+    <t>Benevento Calcio</t>
+  </si>
+  <si>
+    <t>US Salernitana</t>
   </si>
   <si>
     <t>A.C.R. Messina</t>
@@ -1168,33 +1180,21 @@
     <t>AC Ancona</t>
   </si>
   <si>
-    <t>Benevento Calcio</t>
-  </si>
-  <si>
     <t>Frosinone Calcio</t>
   </si>
   <si>
-    <t>AC Liguria</t>
-  </si>
-  <si>
-    <t>Ternana Calcio</t>
-  </si>
-  <si>
-    <t>US Salernitana</t>
+    <t>AC Pistoiese</t>
+  </si>
+  <si>
+    <t>Carpi FC 1909</t>
+  </si>
+  <si>
+    <t>Treviso FBC 1993</t>
   </si>
   <si>
     <t>Spezia Calcio</t>
   </si>
   <si>
-    <t>Treviso FBC 1993</t>
-  </si>
-  <si>
-    <t>AC Pistoiese</t>
-  </si>
-  <si>
-    <t>Carpi FC 1909</t>
-  </si>
-  <si>
     <t>Everton FC</t>
   </si>
   <si>
@@ -1219,12 +1219,12 @@
     <t>Chelsea FC</t>
   </si>
   <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
     <t>Sunderland AFC</t>
   </si>
   <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
     <t>West Bromwich Albion</t>
   </si>
   <si>
@@ -1234,24 +1234,24 @@
     <t>Blackburn Rovers</t>
   </si>
   <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
     <t>Wolverhampton Wanderers</t>
   </si>
   <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
     <t>Derby County</t>
   </si>
   <si>
     <t>West Ham United</t>
   </si>
   <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
     <t>Sheffield United</t>
   </si>
   <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
     <t>Middlesbrough FC</t>
   </si>
   <si>
@@ -1294,18 +1294,18 @@
     <t>Fulham FC</t>
   </si>
   <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
     <t>Birmingham FC</t>
   </si>
   <si>
-    <t>Ipswich Town</t>
-  </si>
-  <si>
     <t>Charlton Athletic</t>
   </si>
   <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
     <t>Queens Park Rangers</t>
   </si>
   <si>
@@ -1342,67 +1342,67 @@
     <t>Bristol City</t>
   </si>
   <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
     <t>Brighton &amp; Hove Albion</t>
   </si>
   <si>
-    <t>Wigan Athletic</t>
+    <t>Brentford FC</t>
   </si>
   <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
-    <t>Brentford FC</t>
+    <t>Hull City</t>
   </si>
   <si>
     <t>Accrington FC</t>
   </si>
   <si>
-    <t>Hull City</t>
+    <t>Reading FC</t>
   </si>
   <si>
     <t>Oxford United</t>
   </si>
   <si>
-    <t>Reading FC</t>
+    <t>Darwen</t>
   </si>
   <si>
     <t>Millwall FC</t>
   </si>
   <si>
-    <t>Darwen</t>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
   </si>
   <si>
     <t>Barnsley FC</t>
   </si>
   <si>
+    <t>Glossop North End</t>
+  </si>
+  <si>
     <t>Carlisle United</t>
   </si>
   <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Glossop North End</t>
-  </si>
-  <si>
-    <t>Swindon Town</t>
-  </si>
-  <si>
     <t>FC Barcelona</t>
   </si>
   <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
     <t>Athletic Bilbao</t>
   </si>
   <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
     <t>Valencia CF</t>
   </si>
   <si>
-    <t>Espanyol Barcelona</t>
+    <t>RCD Espanyol Barcelona</t>
   </si>
   <si>
     <t>Atlético Madrid</t>
@@ -1420,7 +1420,7 @@
     <t>Real Betis Balompié</t>
   </si>
   <si>
-    <t>Celta de Vigo</t>
+    <t>Celta De Vigo</t>
   </si>
   <si>
     <t>Deportivo de La Coruña</t>
@@ -1462,30 +1462,30 @@
     <t>Hércules CF</t>
   </si>
   <si>
+    <t>Real Murcia CF</t>
+  </si>
+  <si>
     <t>Rayo Vallecano</t>
   </si>
   <si>
-    <t>Real Murcia CF</t>
+    <t>Getafe CF</t>
   </si>
   <si>
     <t>Deportivo Alavés</t>
   </si>
   <si>
-    <t>Getafe CF</t>
-  </si>
-  <si>
     <t>Levante UD</t>
   </si>
   <si>
     <t>CE Sabadell</t>
   </si>
   <si>
+    <t>Cádiz CF</t>
+  </si>
+  <si>
     <t>CD Tenerife</t>
   </si>
   <si>
-    <t>Cádiz CF</t>
-  </si>
-  <si>
     <t>UD Salamanca</t>
   </si>
   <si>
@@ -1495,54 +1495,60 @@
     <t>CD Logroñés</t>
   </si>
   <si>
+    <t>Córdoba CF</t>
+  </si>
+  <si>
+    <t>UD Almería</t>
+  </si>
+  <si>
+    <t>Arenas de Getxo</t>
+  </si>
+  <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
+    <t>Albacete Balompié</t>
+  </si>
+  <si>
     <t>Burgos CF</t>
   </si>
   <si>
-    <t>Córdoba CF</t>
-  </si>
-  <si>
-    <t>UD Almería</t>
-  </si>
-  <si>
-    <t>SD Eibar</t>
-  </si>
-  <si>
-    <t>Albacete Balompié</t>
-  </si>
-  <si>
-    <t>Arenas Club</t>
-  </si>
-  <si>
-    <t>Pontevedra</t>
+    <t>Pontevedra CF</t>
   </si>
   <si>
     <t>Recreativo Huelva</t>
   </si>
   <si>
+    <t>Gimnàstic de Tarragona</t>
+  </si>
+  <si>
+    <t>Real Unión</t>
+  </si>
+  <si>
+    <t>CD Numancia</t>
+  </si>
+  <si>
+    <t>SD Compostela</t>
+  </si>
+  <si>
+    <t>CD Leganés</t>
+  </si>
+  <si>
     <t>CD Alcoyano</t>
   </si>
   <si>
-    <t>SD Compostela</t>
-  </si>
-  <si>
-    <t>CD Leganés</t>
-  </si>
-  <si>
-    <t>Real Unión</t>
-  </si>
-  <si>
-    <t>Gimnàstic</t>
-  </si>
-  <si>
-    <t>CD Numancia</t>
-  </si>
-  <si>
-    <t>Real Jaén CF</t>
+    <t>Real Jaén</t>
+  </si>
+  <si>
+    <t>Real Burgos</t>
   </si>
   <si>
     <t>CE Europa</t>
   </si>
   <si>
+    <t>UE Lleida</t>
+  </si>
+  <si>
     <t>CP Mérida</t>
   </si>
   <si>
@@ -1555,19 +1561,16 @@
     <t>SD Huesca</t>
   </si>
   <si>
-    <t>UE Lleida</t>
-  </si>
-  <si>
-    <t>CyD Leonesa</t>
-  </si>
-  <si>
     <t>Xerez CD</t>
   </si>
   <si>
+    <t>Atlético Tetuán</t>
+  </si>
+  <si>
+    <t>CD Leonesa</t>
+  </si>
+  <si>
     <t>CD Condal</t>
-  </si>
-  <si>
-    <t>Atlético Tetuán</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1928,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C516"/>
+  <dimension ref="A1:C517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7607,6 +7610,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>161</v>
+      </c>
+      <c r="B517" t="s">
+        <v>518</v>
+      </c>
+      <c r="C517">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/teams.xlsx
+++ b/teams.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
   <si>
     <t>Team_id</t>
   </si>
@@ -22,18 +22,18 @@
     <t>Teams</t>
   </si>
   <si>
-    <t>League_id</t>
+    <t>Country_id</t>
+  </si>
+  <si>
+    <t>SL Benfica</t>
+  </si>
+  <si>
+    <t>FC Porto</t>
   </si>
   <si>
     <t>Sporting CP</t>
   </si>
   <si>
-    <t>SL Benfica</t>
-  </si>
-  <si>
-    <t>FC Porto</t>
-  </si>
-  <si>
     <t>Vitória Guimarães SC</t>
   </si>
   <si>
@@ -67,21 +67,24 @@
     <t>Leixões SC</t>
   </si>
   <si>
+    <t>CD da CUF Barreiro</t>
+  </si>
+  <si>
     <t>Varzim SC</t>
   </si>
   <si>
+    <t>FC Paços de Ferreira</t>
+  </si>
+  <si>
     <t>SC Salgueiros</t>
   </si>
   <si>
-    <t>CD da CUF Barreiro</t>
-  </si>
-  <si>
-    <t>FC Paços de Ferreira</t>
-  </si>
-  <si>
     <t>Gil Vicente FC</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>CD Nacional</t>
   </si>
   <si>
@@ -94,12 +97,12 @@
     <t>Portimonense SC</t>
   </si>
   <si>
+    <t>GD Chaves</t>
+  </si>
+  <si>
     <t>CF Estrela Amadora SAD</t>
   </si>
   <si>
-    <t>GD Chaves</t>
-  </si>
-  <si>
     <t>FC Barreirense</t>
   </si>
   <si>
@@ -109,21 +112,18 @@
     <t>Atlético CP</t>
   </si>
   <si>
+    <t>Lusitano GC</t>
+  </si>
+  <si>
+    <t>Moreirense FC</t>
+  </si>
+  <si>
     <t>SC Espinho</t>
   </si>
   <si>
-    <t>Lusitano GC</t>
-  </si>
-  <si>
-    <t>Moreirense FC</t>
-  </si>
-  <si>
     <t>SC Olhanense</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>FC Tirsense</t>
   </si>
   <si>
@@ -136,18 +136,18 @@
     <t>CD Feirense</t>
   </si>
   <si>
+    <t>Desportivo Aves</t>
+  </si>
+  <si>
+    <t>CF União Madeira</t>
+  </si>
+  <si>
+    <t>União Torreense</t>
+  </si>
+  <si>
     <t>União Tomar</t>
   </si>
   <si>
-    <t>CF União Madeira</t>
-  </si>
-  <si>
-    <t>União Torreense</t>
-  </si>
-  <si>
-    <t>Desportivo Aves</t>
-  </si>
-  <si>
     <t>CD Santa Clara</t>
   </si>
   <si>
@@ -163,90 +163,90 @@
     <t>Naval 1º de Maio</t>
   </si>
   <si>
+    <t>FC Arouca</t>
+  </si>
+  <si>
     <t>Oriental de Lisboa</t>
   </si>
   <si>
     <t>Académico de Viseu</t>
   </si>
   <si>
-    <t>FC Arouca</t>
-  </si>
-  <si>
     <t>Caldas SC</t>
   </si>
   <si>
     <t>Montijo</t>
   </si>
   <si>
+    <t>Leça FC</t>
+  </si>
+  <si>
+    <t>AD Sanjoanense</t>
+  </si>
+  <si>
     <t>Amora FC</t>
   </si>
   <si>
-    <t>Leça FC</t>
-  </si>
-  <si>
-    <t>AD Sanjoanense</t>
-  </si>
-  <si>
     <t>O Elvas</t>
   </si>
   <si>
     <t>Seixal</t>
   </si>
   <si>
+    <t>CD Trofense</t>
+  </si>
+  <si>
+    <t>GD Riopele</t>
+  </si>
+  <si>
+    <t>R.D. Águeda</t>
+  </si>
+  <si>
+    <t>União Coimbra</t>
+  </si>
+  <si>
     <t>FC Vizela</t>
   </si>
   <si>
-    <t>União Coimbra</t>
-  </si>
-  <si>
-    <t>CD Trofense</t>
-  </si>
-  <si>
     <t>FC Felgueiras 1932</t>
   </si>
   <si>
     <t>AD Fafe</t>
   </si>
   <si>
-    <t>R.D. Águeda</t>
-  </si>
-  <si>
     <t>GC Alcobaça</t>
   </si>
   <si>
-    <t>GD Riopele</t>
-  </si>
-  <si>
     <t>São Paulo FC</t>
   </si>
   <si>
+    <t>Santos FC</t>
+  </si>
+  <si>
     <t>Flamengo RJ</t>
   </si>
   <si>
     <t>Fluminense RJ</t>
   </si>
   <si>
-    <t>Santos FC</t>
-  </si>
-  <si>
     <t>Athletico Paranaense</t>
   </si>
   <si>
     <t>Corinthians SP</t>
   </si>
   <si>
+    <t>Grêmio Porto Alegre</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
     <t>Atlético Mineiro</t>
   </si>
   <si>
-    <t>Internacional</t>
-  </si>
-  <si>
-    <t>Grêmio Porto Alegre</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
     <t>Botafogo - RJ</t>
   </si>
   <si>
@@ -256,99 +256,99 @@
     <t>Vasco da Gama</t>
   </si>
   <si>
+    <t>Goiás</t>
+  </si>
+  <si>
     <t>Coritiba FC</t>
   </si>
   <si>
-    <t>Goiás</t>
-  </si>
-  <si>
     <t>Figueirense - SC</t>
   </si>
   <si>
+    <t>Sport - PE</t>
+  </si>
+  <si>
     <t>Vitória - BA</t>
   </si>
   <si>
-    <t>Sport - PE</t>
+    <t>Ponte Preta</t>
   </si>
   <si>
     <t>Bahia - BA</t>
   </si>
   <si>
-    <t>Ponte Preta</t>
-  </si>
-  <si>
     <t>Chapecoense</t>
   </si>
   <si>
+    <t>Avaí - SC</t>
+  </si>
+  <si>
     <t>Paraná Clube</t>
   </si>
   <si>
-    <t>Avaí - SC</t>
+    <t>Juventude - RS</t>
+  </si>
+  <si>
+    <t>Atlético Goianiense</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Ceará - CE</t>
   </si>
   <si>
-    <t>Juventude - RS</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
     <t>Náutico - PE</t>
   </si>
   <si>
-    <t>Atlético Goianiense</t>
+    <t>Criciúma - SC</t>
   </si>
   <si>
     <t>São Caetano - SP</t>
   </si>
   <si>
-    <t>Criciúma - SC</t>
+    <t>América - MG</t>
+  </si>
+  <si>
+    <t>Portuguesa - SP</t>
+  </si>
+  <si>
+    <t>Guarani - SP</t>
   </si>
   <si>
     <t>Paysandu - PA</t>
   </si>
   <si>
-    <t>Portuguesa - SP</t>
-  </si>
-  <si>
-    <t>Guarani - SP</t>
-  </si>
-  <si>
-    <t>América - MG</t>
-  </si>
-  <si>
     <t>Santa Cruz - PE</t>
   </si>
   <si>
+    <t>Grêmio Prudente</t>
+  </si>
+  <si>
+    <t>Brasiliense - DF</t>
+  </si>
+  <si>
     <t>Joinville - SC</t>
   </si>
   <si>
     <t>Red Bull Bragantino</t>
   </si>
   <si>
+    <t>Santo André - SP</t>
+  </si>
+  <si>
+    <t>Grêmio Barueri - SP</t>
+  </si>
+  <si>
     <t>América - RN</t>
   </si>
   <si>
+    <t>Ipatinga FC</t>
+  </si>
+  <si>
     <t>CSA - AL</t>
   </si>
   <si>
-    <t>Ipatinga FC</t>
-  </si>
-  <si>
-    <t>Grêmio Barueri - SP</t>
-  </si>
-  <si>
-    <t>Grêmio Prudente</t>
-  </si>
-  <si>
-    <t>Brasiliense - DF</t>
-  </si>
-  <si>
-    <t>Santo André - SP</t>
-  </si>
-  <si>
     <t>Ajax Amsterdam</t>
   </si>
   <si>
@@ -385,12 +385,12 @@
     <t>NEC Nijmegen</t>
   </si>
   <si>
+    <t>MVV Maastricht</t>
+  </si>
+  <si>
     <t>Vitesse</t>
   </si>
   <si>
-    <t>MVV Maastricht</t>
-  </si>
-  <si>
     <t>ADO Den Haag</t>
   </si>
   <si>
@@ -400,27 +400,27 @@
     <t>sc Heerenveen</t>
   </si>
   <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
     <t>FC Volendam</t>
   </si>
   <si>
-    <t>RKC Waalwijk</t>
-  </si>
-  <si>
     <t>VVV-Venlo</t>
   </si>
   <si>
     <t>SBV Excelsior</t>
   </si>
   <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
     <t>De Graafschap</t>
   </si>
   <si>
-    <t>Heracles Almelo</t>
-  </si>
-  <si>
-    <t>Fortuna Sittard</t>
-  </si>
-  <si>
     <t>Feijenoord</t>
   </si>
   <si>
@@ -430,51 +430,51 @@
     <t>Telstar</t>
   </si>
   <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
     <t>DWS Amsterdam</t>
   </si>
   <si>
-    <t>PEC Zwolle</t>
-  </si>
-  <si>
     <t>Fortuna '54</t>
   </si>
   <si>
     <t>FC Den Haag</t>
   </si>
   <si>
+    <t>SBV Haarlem</t>
+  </si>
+  <si>
+    <t>HFC Haarlem</t>
+  </si>
+  <si>
     <t>Sportclub Enschede</t>
   </si>
   <si>
-    <t>SBV Haarlem</t>
-  </si>
-  <si>
-    <t>HFC Haarlem</t>
+    <t>FC Den Bosch '67</t>
+  </si>
+  <si>
+    <t>Groninger VAV</t>
+  </si>
+  <si>
+    <t>SC Cambuur</t>
   </si>
   <si>
     <t>USV Elinkwijk</t>
   </si>
   <si>
-    <t>SC Cambuur</t>
-  </si>
-  <si>
-    <t>Groninger VAV</t>
-  </si>
-  <si>
-    <t>FC Den Bosch '67</t>
-  </si>
-  <si>
     <t>PEC Zwolle '82</t>
   </si>
   <si>
+    <t>Blauw Wit</t>
+  </si>
+  <si>
+    <t>Rapid JC Heerlen</t>
+  </si>
+  <si>
     <t>FC Amsterdam</t>
   </si>
   <si>
-    <t>Blauw Wit</t>
-  </si>
-  <si>
-    <t>Rapid JC Heerlen</t>
-  </si>
-  <si>
     <t>GVAV Groningen</t>
   </si>
   <si>
@@ -484,85 +484,85 @@
     <t>FC Den Haag-ADO</t>
   </si>
   <si>
+    <t>FC Den Bosch</t>
+  </si>
+  <si>
+    <t>NOAD Tilburg</t>
+  </si>
+  <si>
     <t>Sittardia</t>
   </si>
   <si>
-    <t>FC Den Bosch</t>
-  </si>
-  <si>
-    <t>NOAD Tilburg</t>
+    <t>SC Eindhoven</t>
   </si>
   <si>
     <t>FC Emmen</t>
   </si>
   <si>
-    <t>SC Eindhoven</t>
-  </si>
-  <si>
     <t>Holland Sport</t>
   </si>
   <si>
+    <t>Dordrecht '90</t>
+  </si>
+  <si>
+    <t>Helmond Sport</t>
+  </si>
+  <si>
+    <t>BVV Den Bosch</t>
+  </si>
+  <si>
+    <t>Drechtsteden '79</t>
+  </si>
+  <si>
+    <t>BV Veendam</t>
+  </si>
+  <si>
+    <t>FC Zwolle</t>
+  </si>
+  <si>
+    <t>SVV Schiedam</t>
+  </si>
+  <si>
+    <t>BVC Amsterdam</t>
+  </si>
+  <si>
     <t>BVV</t>
   </si>
   <si>
-    <t>SVV Schiedam</t>
-  </si>
-  <si>
-    <t>Helmond Sport</t>
-  </si>
-  <si>
-    <t>BV Veendam</t>
-  </si>
-  <si>
-    <t>FC Zwolle</t>
-  </si>
-  <si>
-    <t>Drechtsteden '79</t>
-  </si>
-  <si>
-    <t>Dordrecht '90</t>
-  </si>
-  <si>
-    <t>BVC Amsterdam</t>
-  </si>
-  <si>
     <t>De Volewijckers</t>
   </si>
   <si>
-    <t>BVV Den Bosch</t>
+    <t>SHS</t>
+  </si>
+  <si>
+    <t>FC Dordrecht</t>
+  </si>
+  <si>
+    <t>FC Xerxes</t>
+  </si>
+  <si>
+    <t>WVV Wageningen</t>
+  </si>
+  <si>
+    <t>FC Wageningen</t>
   </si>
   <si>
     <t>VV Alkmaar '54</t>
   </si>
   <si>
-    <t>FC Xerxes</t>
-  </si>
-  <si>
-    <t>FC Wageningen</t>
-  </si>
-  <si>
-    <t>FC Dordrecht</t>
-  </si>
-  <si>
-    <t>WVV Wageningen</t>
+    <t>Xerxes/D.H.C.</t>
+  </si>
+  <si>
+    <t>S.V.V./Dordrecht '90</t>
   </si>
   <si>
     <t>FSC Geleen</t>
   </si>
   <si>
-    <t>SHS</t>
-  </si>
-  <si>
-    <t>Xerxes/D.H.C.</t>
-  </si>
-  <si>
-    <t>S.V.V./Dordrecht '90</t>
-  </si>
-  <si>
     <t>SV Werder Bremen</t>
   </si>
   <si>
-    <t>Bayern Munich</t>
+    <t>FC Bayern</t>
   </si>
   <si>
     <t>Hamburger SV</t>
@@ -574,12 +574,12 @@
     <t>Borussia Dortmund</t>
   </si>
   <si>
+    <t>Borussia Mönchengladbach</t>
+  </si>
+  <si>
     <t>FC Schalke 04</t>
   </si>
   <si>
-    <t>Borussia Mönchengladbach</t>
-  </si>
-  <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
@@ -604,18 +604,18 @@
     <t>Hannover 96</t>
   </si>
   <si>
+    <t>Fortuna Düsseldorf</t>
+  </si>
+  <si>
+    <t>MSV Duisburg</t>
+  </si>
+  <si>
     <t>VfL Wolfsburg</t>
   </si>
   <si>
-    <t>Fortuna Düsseldorf</t>
-  </si>
-  <si>
     <t>Karlsruher SC</t>
   </si>
   <si>
-    <t>MSV Duisburg</t>
-  </si>
-  <si>
     <t>SC Freiburg</t>
   </si>
   <si>
@@ -646,15 +646,15 @@
     <t>FC St. Pauli</t>
   </si>
   <si>
+    <t>Waldh. Mannheim</t>
+  </si>
+  <si>
+    <t>K. Offenbach</t>
+  </si>
+  <si>
     <t>RW Essen</t>
   </si>
   <si>
-    <t>Waldh. Mannheim</t>
-  </si>
-  <si>
-    <t>K. Offenbach</t>
-  </si>
-  <si>
     <t>FC Energie Cottbus</t>
   </si>
   <si>
@@ -664,19 +664,22 @@
     <t>Saarbrücken</t>
   </si>
   <si>
+    <t>Wattenscheid 09</t>
+  </si>
+  <si>
+    <t>Alemannia Aachen</t>
+  </si>
+  <si>
     <t>RW Oberhausen</t>
   </si>
   <si>
-    <t>Alemannia Aachen</t>
+    <t>Meidericher SV</t>
   </si>
   <si>
     <t>SV Darmstadt 98</t>
   </si>
   <si>
-    <t>Wattenscheid 09</t>
-  </si>
-  <si>
-    <t>Meidericher SV</t>
+    <t>Wuppertaler SV</t>
   </si>
   <si>
     <t>B. Neunkirchen</t>
@@ -688,13 +691,16 @@
     <t>FC 08 Homburg</t>
   </si>
   <si>
-    <t>Wuppertaler SV</t>
+    <t>SC Paderborn 07</t>
+  </si>
+  <si>
+    <t>FC Ingolstadt 04</t>
   </si>
   <si>
     <t>1.FC Union Berlin</t>
   </si>
   <si>
-    <t>FC Ingolstadt 04</t>
+    <t>SpVgg Unterhaching</t>
   </si>
   <si>
     <t>Stuttg. Kickers</t>
@@ -703,42 +709,36 @@
     <t>TeBe Berlin</t>
   </si>
   <si>
-    <t>SC Paderborn 07</t>
-  </si>
-  <si>
-    <t>SpVgg Unterhaching</t>
+    <t>SpVgg Greuther Fürth</t>
+  </si>
+  <si>
+    <t>KFC Uerdingen 05</t>
+  </si>
+  <si>
+    <t>Dynamo Dresden *</t>
+  </si>
+  <si>
+    <t>Tasmania Berlin</t>
+  </si>
+  <si>
+    <t>SC Fortuna Köln</t>
+  </si>
+  <si>
+    <t>BW Berlin</t>
+  </si>
+  <si>
+    <t>SSV Ulm 1846</t>
   </si>
   <si>
     <t>Arm. Bielefeld *</t>
   </si>
   <si>
+    <t>VfB Leipzig</t>
+  </si>
+  <si>
     <t>Preußen Münster</t>
   </si>
   <si>
-    <t>VfB Leipzig</t>
-  </si>
-  <si>
-    <t>SC Fortuna Köln</t>
-  </si>
-  <si>
-    <t>SpVgg Greuther Fürth</t>
-  </si>
-  <si>
-    <t>SSV Ulm 1846</t>
-  </si>
-  <si>
-    <t>Tasmania Berlin</t>
-  </si>
-  <si>
-    <t>Dynamo Dresden *</t>
-  </si>
-  <si>
-    <t>KFC Uerdingen 05</t>
-  </si>
-  <si>
-    <t>BW Berlin</t>
-  </si>
-  <si>
     <t>LOSC Lille</t>
   </si>
   <si>
@@ -754,15 +754,15 @@
     <t>FC Sochaux</t>
   </si>
   <si>
+    <t>Stade Rennais FC</t>
+  </si>
+  <si>
     <t>Olympique Lyon</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Stade Rennais FC</t>
-  </si>
-  <si>
     <t>OGC Nice</t>
   </si>
   <si>
@@ -814,12 +814,12 @@
     <t>AC Le Havre</t>
   </si>
   <si>
+    <t>SM Caen</t>
+  </si>
+  <si>
     <t>FC Rouen</t>
   </si>
   <si>
-    <t>SM Caen</t>
-  </si>
-  <si>
     <t>AS Cannes</t>
   </si>
   <si>
@@ -832,21 +832,21 @@
     <t>FC Lorient</t>
   </si>
   <si>
+    <t>EA Guingamp</t>
+  </si>
+  <si>
     <t>AC Ajaccio</t>
   </si>
   <si>
-    <t>EA Guingamp</t>
-  </si>
-  <si>
     <t>Stade Laval</t>
   </si>
   <si>
+    <t>RC Roubaix</t>
+  </si>
+  <si>
     <t>CS Sedan</t>
   </si>
   <si>
-    <t>RC Roubaix</t>
-  </si>
-  <si>
     <t>UA Sedan-Torcy</t>
   </si>
   <si>
@@ -856,34 +856,37 @@
     <t>SC Toulon</t>
   </si>
   <si>
+    <t>ESTAC Troyes</t>
+  </si>
+  <si>
     <t>Red Star FC</t>
   </si>
   <si>
     <t>Valenciennes FC</t>
   </si>
   <si>
-    <t>ESTAC Troyes</t>
+    <t>Dijon FCO</t>
   </si>
   <si>
     <t>Le Mans UC 72</t>
   </si>
   <si>
-    <t>Dijon FCO</t>
-  </si>
-  <si>
     <t>Excelsior Roubaix</t>
   </si>
   <si>
     <t>FC Antibes</t>
   </si>
   <si>
+    <t>Olympique Alès</t>
+  </si>
+  <si>
+    <t>Troyes AF</t>
+  </si>
+  <si>
     <t>FC Mulhouse</t>
   </si>
   <si>
-    <t>Troyes AF</t>
-  </si>
-  <si>
-    <t>Olympique Alès</t>
+    <t>Red Star Olympique</t>
   </si>
   <si>
     <t>Grenoble Foot 38</t>
@@ -892,105 +895,102 @@
     <t>FC Évian Thonon Gaillard</t>
   </si>
   <si>
-    <t>Red Star Olympique</t>
-  </si>
-  <si>
     <t>Tours FC</t>
   </si>
   <si>
+    <t>FC Martigues</t>
+  </si>
+  <si>
+    <t>Limoges FC</t>
+  </si>
+  <si>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>AS Angoulême</t>
+  </si>
+  <si>
+    <t>AS Troyes-Savinienne</t>
+  </si>
+  <si>
     <t>AS Cannes-Grasse</t>
   </si>
   <si>
     <t>Sporting Club de Toulon</t>
   </si>
   <si>
-    <t>FC Martigues</t>
-  </si>
-  <si>
-    <t>Limoges FC</t>
-  </si>
-  <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
-    <t>AS Troyes-Savinienne</t>
-  </si>
-  <si>
-    <t>AS Angoulême</t>
-  </si>
-  <si>
     <t>Paris FC</t>
   </si>
   <si>
+    <t>Stade Red Star</t>
+  </si>
+  <si>
     <t>Red Star Olympique Audonien</t>
   </si>
   <si>
+    <t>Matra Racing</t>
+  </si>
+  <si>
     <t>SC Nimes</t>
   </si>
   <si>
     <t>Stade Français</t>
   </si>
   <si>
-    <t>Stade Red Star</t>
-  </si>
-  <si>
-    <t>Matra Racing</t>
+    <t>AS Béziers</t>
+  </si>
+  <si>
+    <t>FC Gueugnon</t>
+  </si>
+  <si>
+    <t>Association Sportive Avignonaise</t>
+  </si>
+  <si>
+    <t>FC Istres</t>
+  </si>
+  <si>
+    <t>Stade de Paris FC</t>
   </si>
   <si>
     <t>GFC Ajaccio</t>
   </si>
   <si>
-    <t>FC Istres</t>
+    <t>AS Aixoise</t>
+  </si>
+  <si>
+    <t>US Boulogne</t>
+  </si>
+  <si>
+    <t>SR Colmar</t>
   </si>
   <si>
     <t>LB Châteauroux</t>
   </si>
   <si>
-    <t>Stade de Paris FC</t>
-  </si>
-  <si>
-    <t>SR Colmar</t>
-  </si>
-  <si>
     <t>CS Metz</t>
   </si>
   <si>
-    <t>Association Sportive Avignonaise</t>
+    <t>CA Paris (old)</t>
+  </si>
+  <si>
+    <t>ATAC Troyes</t>
   </si>
   <si>
     <t>Athlétic Club Arlésien</t>
   </si>
   <si>
-    <t>AS Béziers</t>
-  </si>
-  <si>
     <t>Chamois Niortais</t>
   </si>
   <si>
-    <t>FC Gueugnon</t>
-  </si>
-  <si>
-    <t>AS Aixoise</t>
-  </si>
-  <si>
-    <t>ATAC Troyes</t>
-  </si>
-  <si>
-    <t>CA Paris (old)</t>
-  </si>
-  <si>
-    <t>US Boulogne</t>
-  </si>
-  <si>
     <t>Inter</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>AS Roma</t>
   </si>
   <si>
-    <t>Juventus</t>
-  </si>
-  <si>
     <t>AC Milan</t>
   </si>
   <si>
@@ -1039,112 +1039,124 @@
     <t>Brescia Calcio</t>
   </si>
   <si>
-    <t>Unione Triestina</t>
+    <t>US Triestina</t>
   </si>
   <si>
     <t>Lanerossi Vicenza</t>
   </si>
   <si>
+    <t>Chievo Verona</t>
+  </si>
+  <si>
+    <t>Calcio Catania</t>
+  </si>
+  <si>
+    <t>Ascoli Calcio 1898</t>
+  </si>
+  <si>
+    <t>SPAL Ferrara</t>
+  </si>
+  <si>
+    <t>Calcio Padova</t>
+  </si>
+  <si>
+    <t>US Lecce</t>
+  </si>
+  <si>
+    <t>US Alessandria 1912</t>
+  </si>
+  <si>
+    <t>AC Cesena</t>
+  </si>
+  <si>
+    <t>AC Perugia</t>
+  </si>
+  <si>
+    <t>FC Empoli</t>
+  </si>
+  <si>
+    <t>Como Calcio</t>
+  </si>
+  <si>
+    <t>Aurora Pro Patria</t>
+  </si>
+  <si>
+    <t>Novara Calcio 1908</t>
+  </si>
+  <si>
+    <t>Modena FC</t>
+  </si>
+  <si>
+    <t>US Foggia</t>
+  </si>
+  <si>
+    <t>US Avellino</t>
+  </si>
+  <si>
+    <t>AC Siena</t>
+  </si>
+  <si>
+    <t>Reggina Calcio</t>
+  </si>
+  <si>
+    <t>US Livorno</t>
+  </si>
+  <si>
+    <t>Piacenza Calcio</t>
+  </si>
+  <si>
+    <t>Lucchese</t>
+  </si>
+  <si>
+    <t>AC Venezia</t>
+  </si>
+  <si>
+    <t>US Sassuolo</t>
+  </si>
+  <si>
+    <t>US Catanzaro</t>
+  </si>
+  <si>
+    <t>US Cremonese</t>
+  </si>
+  <si>
+    <t>AC Mantova</t>
+  </si>
+  <si>
+    <t>Pescara Calcio</t>
+  </si>
+  <si>
+    <t>AC Venezia 1907</t>
+  </si>
+  <si>
+    <t>AS Varese 1910</t>
+  </si>
+  <si>
+    <t>Pisa SC</t>
+  </si>
+  <si>
+    <t>AS Livorno</t>
+  </si>
+  <si>
+    <t>Pro Vercelli</t>
+  </si>
+  <si>
+    <t>Casale</t>
+  </si>
+  <si>
+    <t>Sampierdarenese</t>
+  </si>
+  <si>
+    <t>AC Reggiana</t>
+  </si>
+  <si>
+    <t>Legnano</t>
+  </si>
+  <si>
     <t>SPAL 2013 Ferrara</t>
   </si>
   <si>
-    <t>Chievo Verona</t>
-  </si>
-  <si>
-    <t>Calcio Catania</t>
-  </si>
-  <si>
-    <t>Calcio Padova</t>
-  </si>
-  <si>
-    <t>Ascoli Calcio 1898</t>
-  </si>
-  <si>
-    <t>US Lecce</t>
-  </si>
-  <si>
-    <t>US Alessandria 1912</t>
-  </si>
-  <si>
-    <t>FC Empoli</t>
-  </si>
-  <si>
-    <t>AC Cesena</t>
-  </si>
-  <si>
-    <t>AC Perugia</t>
-  </si>
-  <si>
-    <t>Como Calcio</t>
-  </si>
-  <si>
-    <t>Aurora Pro Patria</t>
-  </si>
-  <si>
-    <t>Modena FC</t>
-  </si>
-  <si>
-    <t>US Foggia</t>
-  </si>
-  <si>
-    <t>Novara Calcio 1908</t>
-  </si>
-  <si>
-    <t>US Avellino</t>
-  </si>
-  <si>
-    <t>US Livorno</t>
-  </si>
-  <si>
-    <t>Reggina Calcio</t>
-  </si>
-  <si>
-    <t>AC Siena</t>
-  </si>
-  <si>
-    <t>Piacenza Calcio</t>
-  </si>
-  <si>
-    <t>US Sassuolo</t>
-  </si>
-  <si>
-    <t>AC Venezia</t>
-  </si>
-  <si>
-    <t>Lucchese</t>
-  </si>
-  <si>
-    <t>US Cremonese</t>
-  </si>
-  <si>
-    <t>Pescara Calcio</t>
-  </si>
-  <si>
-    <t>US Catanzaro</t>
-  </si>
-  <si>
-    <t>AC Mantova</t>
-  </si>
-  <si>
-    <t>Pisa SC</t>
-  </si>
-  <si>
-    <t>AS Varese 1910</t>
-  </si>
-  <si>
-    <t>AC Venezia 1907</t>
-  </si>
-  <si>
-    <t>AS Livorno</t>
-  </si>
-  <si>
-    <t>Pro Vercelli</t>
-  </si>
-  <si>
-    <t>Casale</t>
-  </si>
-  <si>
-    <t>AC Reggiana</t>
+    <t>FC Crotone</t>
   </si>
   <si>
     <t>FC Messina</t>
@@ -1153,48 +1165,39 @@
     <t>Calcio Lecco 1912</t>
   </si>
   <si>
-    <t>Sampierdarenese</t>
-  </si>
-  <si>
-    <t>Legnano</t>
-  </si>
-  <si>
-    <t>FC Crotone</t>
-  </si>
-  <si>
     <t>AC Liguria</t>
   </si>
   <si>
+    <t>US Salernitana</t>
+  </si>
+  <si>
     <t>Ternana Calcio</t>
   </si>
   <si>
+    <t>A.C.R. Messina</t>
+  </si>
+  <si>
     <t>Benevento Calcio</t>
   </si>
   <si>
-    <t>US Salernitana</t>
-  </si>
-  <si>
-    <t>A.C.R. Messina</t>
-  </si>
-  <si>
     <t>AC Ancona</t>
   </si>
   <si>
     <t>Frosinone Calcio</t>
   </si>
   <si>
+    <t>Spezia Calcio</t>
+  </si>
+  <si>
+    <t>Carpi FC 1909</t>
+  </si>
+  <si>
     <t>AC Pistoiese</t>
   </si>
   <si>
-    <t>Carpi FC 1909</t>
-  </si>
-  <si>
     <t>Treviso FBC 1993</t>
   </si>
   <si>
-    <t>Spezia Calcio</t>
-  </si>
-  <si>
     <t>Everton FC</t>
   </si>
   <si>
@@ -1213,19 +1216,28 @@
     <t>Manchester City</t>
   </si>
   <si>
+    <t>West Bromwich Albion</t>
+  </si>
+  <si>
+    <t>Sunderland AFC</t>
+  </si>
+  <si>
     <t>Newcastle United</t>
   </si>
   <si>
+    <t>Tottenham Hotspur</t>
+  </si>
+  <si>
     <t>Chelsea FC</t>
   </si>
   <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Sunderland AFC</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion</t>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
   </si>
   <si>
     <t>Bolton Wanderers</t>
@@ -1234,88 +1246,88 @@
     <t>Blackburn Rovers</t>
   </si>
   <si>
-    <t>Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Derby County</t>
+    <t>Sheffield United</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Stoke City</t>
+  </si>
+  <si>
+    <t>Middlesbrough FC</t>
+  </si>
+  <si>
+    <t>Burnley FC</t>
   </si>
   <si>
     <t>West Ham United</t>
   </si>
   <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Middlesbrough FC</t>
-  </si>
-  <si>
-    <t>Burnley FC</t>
-  </si>
-  <si>
-    <t>Nottingham Forest</t>
+    <t>Leeds United</t>
   </si>
   <si>
     <t>Leicester City</t>
   </si>
   <si>
-    <t>Leeds United</t>
-  </si>
-  <si>
     <t>Preston North End</t>
   </si>
   <si>
     <t>Southampton FC</t>
   </si>
   <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
     <t>Coventry City</t>
   </si>
   <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Norwich City</t>
+  </si>
+  <si>
     <t>Portsmouth FC</t>
   </si>
   <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Birmingham City</t>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Blackpool FC</t>
+  </si>
+  <si>
+    <t>Fulham FC</t>
+  </si>
+  <si>
+    <t>Cardiff City</t>
+  </si>
+  <si>
+    <t>Watford FC</t>
   </si>
   <si>
     <t>Notts County</t>
   </si>
   <si>
-    <t>Blackpool FC</t>
-  </si>
-  <si>
-    <t>Fulham FC</t>
-  </si>
-  <si>
-    <t>Norwich City</t>
-  </si>
-  <si>
-    <t>Ipswich Town</t>
-  </si>
-  <si>
     <t>Birmingham FC</t>
   </si>
   <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Queens Park Rangers</t>
-  </si>
-  <si>
     <t>Bury FC</t>
   </si>
   <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Cardiff City</t>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Reading FC</t>
   </si>
   <si>
     <t>Luton Town</t>
@@ -1324,90 +1336,132 @@
     <t>Bradford City</t>
   </si>
   <si>
+    <t>Barnsley FC</t>
+  </si>
+  <si>
+    <t>Grimsby Town</t>
+  </si>
+  <si>
     <t>Wimbledon FC</t>
   </si>
   <si>
-    <t>Watford FC</t>
-  </si>
-  <si>
-    <t>Grimsby Town</t>
+    <t>Millwall FC</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Swansea City</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Hull City</t>
   </si>
   <si>
     <t>Oldham Athletic</t>
   </si>
   <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Bristol City</t>
-  </si>
-  <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
     <t>Brentford FC</t>
   </si>
   <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
     <t>AFC Bournemouth</t>
   </si>
   <si>
-    <t>Hull City</t>
+    <t>Crewe Alexandra</t>
+  </si>
+  <si>
+    <t>Plymouth Argyle</t>
+  </si>
+  <si>
+    <t>Tranmere Rovers</t>
   </si>
   <si>
     <t>Accrington FC</t>
   </si>
   <si>
-    <t>Reading FC</t>
+    <t>Doncaster Rovers</t>
   </si>
   <si>
     <t>Oxford United</t>
   </si>
   <si>
+    <t>Gillingham FC</t>
+  </si>
+  <si>
+    <t>Swindon Town</t>
+  </si>
+  <si>
+    <t>Port Vale FC</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Walsall FC</t>
+  </si>
+  <si>
+    <t>Scunthorpe United</t>
+  </si>
+  <si>
+    <t>Southend United</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
     <t>Darwen</t>
   </si>
   <si>
-    <t>Millwall FC</t>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Glossop North End</t>
   </si>
   <si>
     <t>Leyton Orient</t>
   </si>
   <si>
-    <t>Swindon Town</t>
+    <t>Milton Keynes Dons</t>
   </si>
   <si>
     <t>Northampton Town</t>
   </si>
   <si>
-    <t>Barnsley FC</t>
-  </si>
-  <si>
-    <t>Glossop North End</t>
-  </si>
-  <si>
     <t>Carlisle United</t>
   </si>
   <si>
+    <t>Yeovil Town</t>
+  </si>
+  <si>
     <t>FC Barcelona</t>
   </si>
   <si>
+    <t>Athletic Bilbao</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
-    <t>Athletic Bilbao</t>
+    <t>Atlético Madrid</t>
+  </si>
+  <si>
+    <t>RCD Espanyol Barcelona</t>
   </si>
   <si>
     <t>Valencia CF</t>
   </si>
   <si>
-    <t>RCD Espanyol Barcelona</t>
-  </si>
-  <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
     <t>Sevilla FC</t>
   </si>
   <si>
@@ -1417,24 +1471,27 @@
     <t>Real Zaragoza</t>
   </si>
   <si>
+    <t>Celta De Vigo</t>
+  </si>
+  <si>
     <t>Real Betis Balompié</t>
   </si>
   <si>
-    <t>Celta De Vigo</t>
+    <t>Sporting Gijón</t>
+  </si>
+  <si>
+    <t>Real Valladolid CF</t>
+  </si>
+  <si>
+    <t>UD Las Palmas</t>
   </si>
   <si>
     <t>Deportivo de La Coruña</t>
   </si>
   <si>
-    <t>Real Valladolid CF</t>
-  </si>
-  <si>
     <t>Racing Santander</t>
   </si>
   <si>
-    <t>Sporting Gijón</t>
-  </si>
-  <si>
     <t>CA Osasuna</t>
   </si>
   <si>
@@ -1444,130 +1501,238 @@
     <t>Málaga CF</t>
   </si>
   <si>
-    <t>UD Las Palmas</t>
+    <t>Elche CF</t>
   </si>
   <si>
     <t>RCD Mallorca</t>
   </si>
   <si>
+    <t>CD Tenerife</t>
+  </si>
+  <si>
+    <t>Hércules CF</t>
+  </si>
+  <si>
+    <t>Real Murcia CF</t>
+  </si>
+  <si>
     <t>Granada CF</t>
   </si>
   <si>
-    <t>Elche CF</t>
+    <t>Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Córdoba CF</t>
   </si>
   <si>
     <t>Villarreal CF</t>
   </si>
   <si>
-    <t>Hércules CF</t>
-  </si>
-  <si>
-    <t>Real Murcia CF</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano</t>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Albacete Balompié</t>
+  </si>
+  <si>
+    <t>UD Salamanca</t>
+  </si>
+  <si>
+    <t>CD Numancia</t>
+  </si>
+  <si>
+    <t>UD Almería</t>
+  </si>
+  <si>
+    <t>Cádiz CF</t>
   </si>
   <si>
     <t>Getafe CF</t>
   </si>
   <si>
-    <t>Deportivo Alavés</t>
-  </si>
-  <si>
-    <t>Levante UD</t>
+    <t>SD Eibar</t>
   </si>
   <si>
     <t>CE Sabadell</t>
   </si>
   <si>
-    <t>Cádiz CF</t>
-  </si>
-  <si>
-    <t>CD Tenerife</t>
-  </si>
-  <si>
-    <t>UD Salamanca</t>
+    <t>Recreativo Huelva</t>
   </si>
   <si>
     <t>CD Castellón</t>
   </si>
   <si>
+    <t>Gimnàstic de Tarragona</t>
+  </si>
+  <si>
+    <t>CD Leganés</t>
+  </si>
+  <si>
     <t>CD Logroñés</t>
   </si>
   <si>
-    <t>Córdoba CF</t>
-  </si>
-  <si>
-    <t>UD Almería</t>
+    <t>Girona FC</t>
+  </si>
+  <si>
+    <t>Xerez CD</t>
+  </si>
+  <si>
+    <t>AD Alcorcón</t>
+  </si>
+  <si>
+    <t>SD Huesca</t>
+  </si>
+  <si>
+    <t>UE Lleida</t>
+  </si>
+  <si>
+    <t>FC Barcelona B</t>
+  </si>
+  <si>
+    <t>CD Lugo</t>
+  </si>
+  <si>
+    <t>SD Compostela</t>
+  </si>
+  <si>
+    <t>SD Ponferradina</t>
+  </si>
+  <si>
+    <t>CD Badajoz</t>
+  </si>
+  <si>
+    <t>Real Jaén</t>
+  </si>
+  <si>
+    <t>CD Mirandés</t>
+  </si>
+  <si>
+    <t>Pontevedra CF</t>
+  </si>
+  <si>
+    <t>Burgos CF</t>
   </si>
   <si>
     <t>Arenas de Getxo</t>
   </si>
   <si>
-    <t>SD Eibar</t>
-  </si>
-  <si>
-    <t>Albacete Balompié</t>
-  </si>
-  <si>
-    <t>Burgos CF</t>
-  </si>
-  <si>
-    <t>Pontevedra CF</t>
-  </si>
-  <si>
-    <t>Recreativo Huelva</t>
-  </si>
-  <si>
-    <t>Gimnàstic de Tarragona</t>
+    <t>Polideportivo Ejido</t>
+  </si>
+  <si>
+    <t>CF Extremadura</t>
+  </si>
+  <si>
+    <t>Racing Ferrol</t>
+  </si>
+  <si>
+    <t>Real Madrid B</t>
   </si>
   <si>
     <t>Real Unión</t>
   </si>
   <si>
-    <t>CD Numancia</t>
-  </si>
-  <si>
-    <t>SD Compostela</t>
-  </si>
-  <si>
-    <t>CD Leganés</t>
-  </si>
-  <si>
     <t>CD Alcoyano</t>
   </si>
   <si>
-    <t>Real Jaén</t>
+    <t>CP Mérida</t>
+  </si>
+  <si>
+    <t>CD Toledo</t>
+  </si>
+  <si>
+    <t>Ciudad de Murcia</t>
+  </si>
+  <si>
+    <t>FC Cartagena</t>
+  </si>
+  <si>
+    <t>Atlético Madrid B</t>
+  </si>
+  <si>
+    <t>Sevilla Atlético</t>
   </si>
   <si>
     <t>Real Burgos</t>
   </si>
   <si>
+    <t>Villarreal CF B</t>
+  </si>
+  <si>
     <t>CE Europa</t>
   </si>
   <si>
-    <t>UE Lleida</t>
-  </si>
-  <si>
-    <t>CP Mérida</t>
-  </si>
-  <si>
-    <t>CF Extremadura</t>
-  </si>
-  <si>
-    <t>Girona FC</t>
-  </si>
-  <si>
-    <t>SD Huesca</t>
-  </si>
-  <si>
-    <t>Xerez CD</t>
+    <t>CF Reus Deportiu</t>
+  </si>
+  <si>
+    <t>Atlético Malagueño</t>
+  </si>
+  <si>
+    <t>Terrassa CF</t>
+  </si>
+  <si>
+    <t>CD Ourense</t>
+  </si>
+  <si>
+    <t>UE Llagostera</t>
+  </si>
+  <si>
+    <t>CF Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Extremadura UD</t>
+  </si>
+  <si>
+    <t>CD Guadalajara</t>
+  </si>
+  <si>
+    <t>CD Leonesa</t>
+  </si>
+  <si>
+    <t>Écija Balompié</t>
+  </si>
+  <si>
+    <t>Bilbao Athletic</t>
+  </si>
+  <si>
+    <t>Lorca Deportiva</t>
+  </si>
+  <si>
+    <t>Lorca FC</t>
+  </si>
+  <si>
+    <t>Rayo Majadahonda</t>
+  </si>
+  <si>
+    <t>Atlético Marbella</t>
+  </si>
+  <si>
+    <t>UD Vecindario</t>
+  </si>
+  <si>
+    <t>RCD Mallorca B</t>
+  </si>
+  <si>
+    <t>Algeciras CF</t>
+  </si>
+  <si>
+    <t>UCAM Murcia CF</t>
+  </si>
+  <si>
+    <t>UD Logroñés</t>
+  </si>
+  <si>
+    <t>Universidad Las Palmas</t>
   </si>
   <si>
     <t>Atlético Tetuán</t>
   </si>
   <si>
-    <t>CD Leonesa</t>
+    <t>Alicante CF</t>
+  </si>
+  <si>
+    <t>Sestao SC</t>
   </si>
   <si>
     <t>CD Condal</t>
@@ -1928,7 +2093,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C517"/>
+  <dimension ref="A1:C572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,7 +2112,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>701</v>
+        <v>7001</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1958,7 +2123,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>702</v>
+        <v>7002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1969,7 +2134,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>703</v>
+        <v>7003</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1980,7 +2145,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>704</v>
+        <v>7004</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1991,7 +2156,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>705</v>
+        <v>7005</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2002,7 +2167,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>706</v>
+        <v>7006</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -2013,7 +2178,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>707</v>
+        <v>7007</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
@@ -2024,7 +2189,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>708</v>
+        <v>7008</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -2035,7 +2200,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>709</v>
+        <v>7009</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2046,7 +2211,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>710</v>
+        <v>7010</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -2057,7 +2222,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>711</v>
+        <v>7011</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -2068,7 +2233,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>712</v>
+        <v>7012</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -2079,7 +2244,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>713</v>
+        <v>7013</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -2090,7 +2255,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>714</v>
+        <v>7014</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -2101,7 +2266,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>715</v>
+        <v>7015</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2112,7 +2277,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>716</v>
+        <v>7016</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2123,7 +2288,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>717</v>
+        <v>7017</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -2134,7 +2299,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>718</v>
+        <v>7018</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -2145,7 +2310,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>719</v>
+        <v>7019</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2156,7 +2321,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>720</v>
+        <v>7020</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
@@ -2167,7 +2332,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>721</v>
+        <v>7021</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -2178,7 +2343,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>722</v>
+        <v>7022</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -2189,7 +2354,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>723</v>
+        <v>7023</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -2200,7 +2365,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>724</v>
+        <v>7024</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -2211,7 +2376,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>725</v>
+        <v>7025</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -2222,7 +2387,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>726</v>
+        <v>7026</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
@@ -2233,7 +2398,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>727</v>
+        <v>7027</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
@@ -2244,7 +2409,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>728</v>
+        <v>7028</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -2255,7 +2420,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>729</v>
+        <v>7029</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -2266,7 +2431,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>730</v>
+        <v>7030</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -2277,7 +2442,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>731</v>
+        <v>7031</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -2288,7 +2453,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>732</v>
+        <v>7032</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -2299,7 +2464,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>733</v>
+        <v>7033</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -2310,7 +2475,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>734</v>
+        <v>7034</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -2321,7 +2486,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>735</v>
+        <v>7035</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
@@ -2332,7 +2497,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>736</v>
+        <v>7036</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
@@ -2343,7 +2508,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>737</v>
+        <v>7037</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
@@ -2354,7 +2519,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>738</v>
+        <v>7038</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
@@ -2365,7 +2530,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>739</v>
+        <v>7039</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
@@ -2376,7 +2541,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>740</v>
+        <v>7040</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
@@ -2387,7 +2552,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>741</v>
+        <v>7041</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -2398,7 +2563,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>742</v>
+        <v>7042</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -2409,7 +2574,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>743</v>
+        <v>7043</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
@@ -2420,7 +2585,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>744</v>
+        <v>7044</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
@@ -2431,7 +2596,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>745</v>
+        <v>7045</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
@@ -2442,7 +2607,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>746</v>
+        <v>7046</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
@@ -2453,7 +2618,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>747</v>
+        <v>7047</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
@@ -2464,7 +2629,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>748</v>
+        <v>7048</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
@@ -2475,7 +2640,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>749</v>
+        <v>7049</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -2486,7 +2651,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>750</v>
+        <v>7050</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -2497,7 +2662,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>751</v>
+        <v>7051</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
@@ -2508,7 +2673,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>752</v>
+        <v>7052</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
@@ -2519,7 +2684,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>753</v>
+        <v>7053</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
@@ -2530,7 +2695,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>754</v>
+        <v>7054</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -2541,7 +2706,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>755</v>
+        <v>7055</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -2552,7 +2717,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>756</v>
+        <v>7056</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -2563,7 +2728,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>757</v>
+        <v>7057</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -2574,7 +2739,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>758</v>
+        <v>7058</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
@@ -2585,7 +2750,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>759</v>
+        <v>7059</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
@@ -2596,7 +2761,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>760</v>
+        <v>7060</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -2607,7 +2772,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>761</v>
+        <v>7061</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
@@ -2618,7 +2783,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>762</v>
+        <v>7062</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
@@ -2629,7 +2794,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>763</v>
+        <v>7063</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
@@ -2640,7 +2805,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>764</v>
+        <v>7064</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
@@ -2651,7 +2816,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>801</v>
+        <v>8001</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
@@ -2662,7 +2827,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>802</v>
+        <v>8002</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
@@ -2673,7 +2838,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>803</v>
+        <v>8003</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
@@ -2684,7 +2849,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>804</v>
+        <v>8004</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -2695,7 +2860,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>805</v>
+        <v>8005</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
@@ -2706,7 +2871,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>806</v>
+        <v>8006</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
@@ -2717,7 +2882,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>807</v>
+        <v>8007</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
@@ -2728,7 +2893,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>808</v>
+        <v>8008</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
@@ -2739,7 +2904,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>809</v>
+        <v>8009</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
@@ -2750,7 +2915,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>810</v>
+        <v>8010</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
@@ -2761,7 +2926,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>811</v>
+        <v>8011</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
@@ -2772,7 +2937,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>812</v>
+        <v>8012</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
@@ -2783,7 +2948,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>813</v>
+        <v>8013</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -2794,7 +2959,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>814</v>
+        <v>8014</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
@@ -2805,7 +2970,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>815</v>
+        <v>8015</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
@@ -2816,7 +2981,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>816</v>
+        <v>8016</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
@@ -2827,7 +2992,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>817</v>
+        <v>8017</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
@@ -2838,7 +3003,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>818</v>
+        <v>8018</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
@@ -2849,7 +3014,7 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84">
-        <v>819</v>
+        <v>8019</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -2860,7 +3025,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>820</v>
+        <v>8020</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
@@ -2871,7 +3036,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>821</v>
+        <v>8021</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
@@ -2882,7 +3047,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>822</v>
+        <v>8022</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
@@ -2893,7 +3058,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>823</v>
+        <v>8023</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
@@ -2904,7 +3069,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>824</v>
+        <v>8024</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
@@ -2915,7 +3080,7 @@
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>825</v>
+        <v>8025</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
@@ -2926,7 +3091,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>826</v>
+        <v>8026</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
@@ -2937,7 +3102,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>827</v>
+        <v>8027</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
@@ -2948,7 +3113,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>828</v>
+        <v>8028</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
@@ -2959,7 +3124,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>829</v>
+        <v>8029</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
@@ -2970,7 +3135,7 @@
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>830</v>
+        <v>8030</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -2981,7 +3146,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>831</v>
+        <v>8031</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
@@ -2992,7 +3157,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>832</v>
+        <v>8032</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
@@ -3003,7 +3168,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>833</v>
+        <v>8033</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
@@ -3014,7 +3179,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>834</v>
+        <v>8034</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
@@ -3025,7 +3190,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>835</v>
+        <v>8035</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -3036,7 +3201,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>836</v>
+        <v>8036</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
@@ -3047,7 +3212,7 @@
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>837</v>
+        <v>8037</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
@@ -3058,7 +3223,7 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>838</v>
+        <v>8038</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
@@ -3069,7 +3234,7 @@
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>839</v>
+        <v>8039</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
@@ -3080,7 +3245,7 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>840</v>
+        <v>8040</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
@@ -3091,7 +3256,7 @@
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>841</v>
+        <v>8041</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
@@ -3102,7 +3267,7 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>842</v>
+        <v>8042</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
@@ -3113,7 +3278,7 @@
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>843</v>
+        <v>8043</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
@@ -3124,7 +3289,7 @@
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>844</v>
+        <v>8044</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
@@ -3135,7 +3300,7 @@
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>601</v>
+        <v>6001</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
@@ -3146,7 +3311,7 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111">
-        <v>602</v>
+        <v>6002</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -3157,7 +3322,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>603</v>
+        <v>6003</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -3168,7 +3333,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>604</v>
+        <v>6004</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
@@ -3179,7 +3344,7 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114">
-        <v>605</v>
+        <v>6005</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
@@ -3190,7 +3355,7 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>606</v>
+        <v>6006</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
@@ -3201,7 +3366,7 @@
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>607</v>
+        <v>6007</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
@@ -3212,7 +3377,7 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>608</v>
+        <v>6008</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
@@ -3223,7 +3388,7 @@
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>609</v>
+        <v>6009</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
@@ -3234,7 +3399,7 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119">
-        <v>610</v>
+        <v>6010</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -3245,7 +3410,7 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>611</v>
+        <v>6011</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -3256,7 +3421,7 @@
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>612</v>
+        <v>6012</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
@@ -3267,7 +3432,7 @@
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>613</v>
+        <v>6013</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
@@ -3278,7 +3443,7 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>614</v>
+        <v>6014</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
@@ -3289,7 +3454,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>615</v>
+        <v>6015</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
@@ -3300,7 +3465,7 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>616</v>
+        <v>6016</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
@@ -3311,7 +3476,7 @@
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>617</v>
+        <v>6017</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
@@ -3322,7 +3487,7 @@
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>618</v>
+        <v>6018</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
@@ -3333,7 +3498,7 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>619</v>
+        <v>6019</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
@@ -3344,7 +3509,7 @@
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>620</v>
+        <v>6020</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
@@ -3355,7 +3520,7 @@
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>621</v>
+        <v>6021</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
@@ -3366,7 +3531,7 @@
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>622</v>
+        <v>6022</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
@@ -3377,7 +3542,7 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>623</v>
+        <v>6023</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
@@ -3388,7 +3553,7 @@
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>624</v>
+        <v>6024</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
@@ -3399,7 +3564,7 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>625</v>
+        <v>6025</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
@@ -3410,7 +3575,7 @@
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>626</v>
+        <v>6026</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
@@ -3421,7 +3586,7 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>627</v>
+        <v>6027</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
@@ -3432,7 +3597,7 @@
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>628</v>
+        <v>6028</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
@@ -3443,7 +3608,7 @@
     </row>
     <row r="138" spans="1:3">
       <c r="A138">
-        <v>629</v>
+        <v>6029</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
@@ -3454,7 +3619,7 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>630</v>
+        <v>6030</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
@@ -3465,7 +3630,7 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>631</v>
+        <v>6031</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
@@ -3476,7 +3641,7 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141">
-        <v>632</v>
+        <v>6032</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
@@ -3487,7 +3652,7 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>633</v>
+        <v>6033</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
@@ -3498,7 +3663,7 @@
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>634</v>
+        <v>6034</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
@@ -3509,7 +3674,7 @@
     </row>
     <row r="144" spans="1:3">
       <c r="A144">
-        <v>635</v>
+        <v>6035</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
@@ -3520,7 +3685,7 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>636</v>
+        <v>6036</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
@@ -3531,7 +3696,7 @@
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>637</v>
+        <v>6037</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
@@ -3542,7 +3707,7 @@
     </row>
     <row r="147" spans="1:3">
       <c r="A147">
-        <v>638</v>
+        <v>6038</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
@@ -3553,7 +3718,7 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>639</v>
+        <v>6039</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
@@ -3564,7 +3729,7 @@
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>640</v>
+        <v>6040</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
@@ -3575,7 +3740,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>641</v>
+        <v>6041</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3586,7 +3751,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>642</v>
+        <v>6042</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3597,7 +3762,7 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>643</v>
+        <v>6043</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
@@ -3608,7 +3773,7 @@
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>644</v>
+        <v>6044</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
@@ -3619,7 +3784,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>645</v>
+        <v>6045</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3630,7 +3795,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>646</v>
+        <v>6046</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3641,7 +3806,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>647</v>
+        <v>6047</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3652,7 +3817,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>648</v>
+        <v>6048</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3663,7 +3828,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>649</v>
+        <v>6049</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3674,7 +3839,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>650</v>
+        <v>6050</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3685,7 +3850,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>651</v>
+        <v>6051</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3696,7 +3861,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>652</v>
+        <v>6052</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3707,7 +3872,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>653</v>
+        <v>6053</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3718,7 +3883,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>654</v>
+        <v>6054</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3729,7 +3894,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>655</v>
+        <v>6055</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3740,7 +3905,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>656</v>
+        <v>6056</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -3751,7 +3916,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>657</v>
+        <v>6057</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -3762,7 +3927,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>658</v>
+        <v>6058</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -3773,7 +3938,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>659</v>
+        <v>6059</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -3784,7 +3949,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>660</v>
+        <v>6060</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -3795,7 +3960,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>661</v>
+        <v>6061</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -3806,7 +3971,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>662</v>
+        <v>6062</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -3817,7 +3982,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>663</v>
+        <v>6063</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -3828,7 +3993,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>664</v>
+        <v>6064</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -3839,7 +4004,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>665</v>
+        <v>6065</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -3850,7 +4015,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>666</v>
+        <v>6066</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -3861,7 +4026,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>667</v>
+        <v>6067</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -3872,7 +4037,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>668</v>
+        <v>6068</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -3883,7 +4048,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>669</v>
+        <v>6069</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -3894,7 +4059,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>670</v>
+        <v>6070</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -3905,7 +4070,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>501</v>
+        <v>5001</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -3916,7 +4081,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>502</v>
+        <v>5002</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -3927,7 +4092,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>503</v>
+        <v>5003</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -3938,7 +4103,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>504</v>
+        <v>5004</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -3949,7 +4114,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>505</v>
+        <v>5005</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -3960,7 +4125,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>506</v>
+        <v>5006</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -3971,7 +4136,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>507</v>
+        <v>5007</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -3982,7 +4147,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>508</v>
+        <v>5008</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -3993,7 +4158,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>509</v>
+        <v>5009</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4004,7 +4169,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>510</v>
+        <v>5010</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4015,7 +4180,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>511</v>
+        <v>5011</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4026,7 +4191,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>512</v>
+        <v>5012</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4037,7 +4202,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>513</v>
+        <v>5013</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4048,7 +4213,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>514</v>
+        <v>5014</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4059,7 +4224,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>515</v>
+        <v>5015</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4070,7 +4235,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>516</v>
+        <v>5016</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4081,7 +4246,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>517</v>
+        <v>5017</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4092,7 +4257,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>518</v>
+        <v>5018</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4103,7 +4268,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>519</v>
+        <v>5019</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4114,7 +4279,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>520</v>
+        <v>5020</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4125,7 +4290,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>521</v>
+        <v>5021</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4136,7 +4301,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>522</v>
+        <v>5022</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4147,7 +4312,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>523</v>
+        <v>5023</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4158,7 +4323,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>524</v>
+        <v>5024</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4169,7 +4334,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>525</v>
+        <v>5025</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4180,7 +4345,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>526</v>
+        <v>5026</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4191,7 +4356,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>527</v>
+        <v>5027</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4202,7 +4367,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>528</v>
+        <v>5028</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4213,7 +4378,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>529</v>
+        <v>5029</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4224,7 +4389,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>530</v>
+        <v>5030</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4235,7 +4400,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>531</v>
+        <v>5031</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4246,7 +4411,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>532</v>
+        <v>5032</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4257,7 +4422,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>533</v>
+        <v>5033</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4268,7 +4433,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>534</v>
+        <v>5034</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4279,7 +4444,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>535</v>
+        <v>5035</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4290,7 +4455,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>536</v>
+        <v>5036</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4301,7 +4466,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>537</v>
+        <v>5037</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4312,7 +4477,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>538</v>
+        <v>5038</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4323,7 +4488,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>539</v>
+        <v>5039</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4334,7 +4499,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>540</v>
+        <v>5040</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4345,7 +4510,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>541</v>
+        <v>5041</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4356,7 +4521,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>542</v>
+        <v>5042</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4367,7 +4532,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>543</v>
+        <v>5043</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4378,7 +4543,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>544</v>
+        <v>5044</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4389,7 +4554,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>545</v>
+        <v>5045</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4400,7 +4565,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>546</v>
+        <v>5046</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4411,7 +4576,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>547</v>
+        <v>5047</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4422,7 +4587,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>548</v>
+        <v>5048</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4433,7 +4598,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>549</v>
+        <v>5049</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
@@ -4444,7 +4609,7 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>550</v>
+        <v>5050</v>
       </c>
       <c r="B229" t="s">
         <v>230</v>
@@ -4455,7 +4620,7 @@
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>551</v>
+        <v>5051</v>
       </c>
       <c r="B230" t="s">
         <v>231</v>
@@ -4466,7 +4631,7 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>552</v>
+        <v>5052</v>
       </c>
       <c r="B231" t="s">
         <v>232</v>
@@ -4477,7 +4642,7 @@
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>553</v>
+        <v>5053</v>
       </c>
       <c r="B232" t="s">
         <v>233</v>
@@ -4488,7 +4653,7 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>554</v>
+        <v>5054</v>
       </c>
       <c r="B233" t="s">
         <v>234</v>
@@ -4499,7 +4664,7 @@
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>555</v>
+        <v>5055</v>
       </c>
       <c r="B234" t="s">
         <v>235</v>
@@ -4510,7 +4675,7 @@
     </row>
     <row r="235" spans="1:3">
       <c r="A235">
-        <v>556</v>
+        <v>5056</v>
       </c>
       <c r="B235" t="s">
         <v>236</v>
@@ -4521,7 +4686,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>557</v>
+        <v>5057</v>
       </c>
       <c r="B236" t="s">
         <v>237</v>
@@ -4532,7 +4697,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>558</v>
+        <v>5058</v>
       </c>
       <c r="B237" t="s">
         <v>238</v>
@@ -4543,7 +4708,7 @@
     </row>
     <row r="238" spans="1:3">
       <c r="A238">
-        <v>559</v>
+        <v>5059</v>
       </c>
       <c r="B238" t="s">
         <v>239</v>
@@ -4554,7 +4719,7 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>560</v>
+        <v>5060</v>
       </c>
       <c r="B239" t="s">
         <v>240</v>
@@ -5456,7 +5621,7 @@
     </row>
     <row r="321" spans="1:3">
       <c r="A321">
-        <v>301</v>
+        <v>3001</v>
       </c>
       <c r="B321" t="s">
         <v>322</v>
@@ -5467,7 +5632,7 @@
     </row>
     <row r="322" spans="1:3">
       <c r="A322">
-        <v>302</v>
+        <v>3002</v>
       </c>
       <c r="B322" t="s">
         <v>323</v>
@@ -5478,7 +5643,7 @@
     </row>
     <row r="323" spans="1:3">
       <c r="A323">
-        <v>303</v>
+        <v>3003</v>
       </c>
       <c r="B323" t="s">
         <v>324</v>
@@ -5489,7 +5654,7 @@
     </row>
     <row r="324" spans="1:3">
       <c r="A324">
-        <v>304</v>
+        <v>3004</v>
       </c>
       <c r="B324" t="s">
         <v>325</v>
@@ -5500,7 +5665,7 @@
     </row>
     <row r="325" spans="1:3">
       <c r="A325">
-        <v>305</v>
+        <v>3005</v>
       </c>
       <c r="B325" t="s">
         <v>326</v>
@@ -5511,7 +5676,7 @@
     </row>
     <row r="326" spans="1:3">
       <c r="A326">
-        <v>306</v>
+        <v>3006</v>
       </c>
       <c r="B326" t="s">
         <v>327</v>
@@ -5522,7 +5687,7 @@
     </row>
     <row r="327" spans="1:3">
       <c r="A327">
-        <v>307</v>
+        <v>3007</v>
       </c>
       <c r="B327" t="s">
         <v>328</v>
@@ -5533,7 +5698,7 @@
     </row>
     <row r="328" spans="1:3">
       <c r="A328">
-        <v>308</v>
+        <v>3008</v>
       </c>
       <c r="B328" t="s">
         <v>329</v>
@@ -5544,7 +5709,7 @@
     </row>
     <row r="329" spans="1:3">
       <c r="A329">
-        <v>309</v>
+        <v>3009</v>
       </c>
       <c r="B329" t="s">
         <v>330</v>
@@ -5555,7 +5720,7 @@
     </row>
     <row r="330" spans="1:3">
       <c r="A330">
-        <v>310</v>
+        <v>3010</v>
       </c>
       <c r="B330" t="s">
         <v>331</v>
@@ -5566,7 +5731,7 @@
     </row>
     <row r="331" spans="1:3">
       <c r="A331">
-        <v>311</v>
+        <v>3011</v>
       </c>
       <c r="B331" t="s">
         <v>332</v>
@@ -5577,7 +5742,7 @@
     </row>
     <row r="332" spans="1:3">
       <c r="A332">
-        <v>312</v>
+        <v>3012</v>
       </c>
       <c r="B332" t="s">
         <v>333</v>
@@ -5588,7 +5753,7 @@
     </row>
     <row r="333" spans="1:3">
       <c r="A333">
-        <v>313</v>
+        <v>3013</v>
       </c>
       <c r="B333" t="s">
         <v>334</v>
@@ -5599,7 +5764,7 @@
     </row>
     <row r="334" spans="1:3">
       <c r="A334">
-        <v>314</v>
+        <v>3014</v>
       </c>
       <c r="B334" t="s">
         <v>335</v>
@@ -5610,7 +5775,7 @@
     </row>
     <row r="335" spans="1:3">
       <c r="A335">
-        <v>315</v>
+        <v>3015</v>
       </c>
       <c r="B335" t="s">
         <v>336</v>
@@ -5621,7 +5786,7 @@
     </row>
     <row r="336" spans="1:3">
       <c r="A336">
-        <v>316</v>
+        <v>3016</v>
       </c>
       <c r="B336" t="s">
         <v>337</v>
@@ -5632,7 +5797,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>317</v>
+        <v>3017</v>
       </c>
       <c r="B337" t="s">
         <v>338</v>
@@ -5643,7 +5808,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>318</v>
+        <v>3018</v>
       </c>
       <c r="B338" t="s">
         <v>339</v>
@@ -5654,7 +5819,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>319</v>
+        <v>3019</v>
       </c>
       <c r="B339" t="s">
         <v>340</v>
@@ -5665,7 +5830,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>320</v>
+        <v>3020</v>
       </c>
       <c r="B340" t="s">
         <v>341</v>
@@ -5676,7 +5841,7 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>321</v>
+        <v>3021</v>
       </c>
       <c r="B341" t="s">
         <v>342</v>
@@ -5687,7 +5852,7 @@
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>322</v>
+        <v>3022</v>
       </c>
       <c r="B342" t="s">
         <v>343</v>
@@ -5698,7 +5863,7 @@
     </row>
     <row r="343" spans="1:3">
       <c r="A343">
-        <v>323</v>
+        <v>3023</v>
       </c>
       <c r="B343" t="s">
         <v>344</v>
@@ -5709,7 +5874,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>324</v>
+        <v>3024</v>
       </c>
       <c r="B344" t="s">
         <v>345</v>
@@ -5720,7 +5885,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>325</v>
+        <v>3025</v>
       </c>
       <c r="B345" t="s">
         <v>346</v>
@@ -5731,7 +5896,7 @@
     </row>
     <row r="346" spans="1:3">
       <c r="A346">
-        <v>326</v>
+        <v>3026</v>
       </c>
       <c r="B346" t="s">
         <v>347</v>
@@ -5742,7 +5907,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>327</v>
+        <v>3027</v>
       </c>
       <c r="B347" t="s">
         <v>348</v>
@@ -5753,7 +5918,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>328</v>
+        <v>3028</v>
       </c>
       <c r="B348" t="s">
         <v>349</v>
@@ -5764,7 +5929,7 @@
     </row>
     <row r="349" spans="1:3">
       <c r="A349">
-        <v>329</v>
+        <v>3029</v>
       </c>
       <c r="B349" t="s">
         <v>350</v>
@@ -5775,7 +5940,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>330</v>
+        <v>3030</v>
       </c>
       <c r="B350" t="s">
         <v>351</v>
@@ -5786,7 +5951,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>331</v>
+        <v>3031</v>
       </c>
       <c r="B351" t="s">
         <v>352</v>
@@ -5797,7 +5962,7 @@
     </row>
     <row r="352" spans="1:3">
       <c r="A352">
-        <v>332</v>
+        <v>3032</v>
       </c>
       <c r="B352" t="s">
         <v>353</v>
@@ -5808,7 +5973,7 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>333</v>
+        <v>3033</v>
       </c>
       <c r="B353" t="s">
         <v>354</v>
@@ -5819,7 +5984,7 @@
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>334</v>
+        <v>3034</v>
       </c>
       <c r="B354" t="s">
         <v>355</v>
@@ -5830,7 +5995,7 @@
     </row>
     <row r="355" spans="1:3">
       <c r="A355">
-        <v>335</v>
+        <v>3035</v>
       </c>
       <c r="B355" t="s">
         <v>356</v>
@@ -5841,7 +6006,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>336</v>
+        <v>3036</v>
       </c>
       <c r="B356" t="s">
         <v>357</v>
@@ -5852,7 +6017,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>337</v>
+        <v>3037</v>
       </c>
       <c r="B357" t="s">
         <v>358</v>
@@ -5863,7 +6028,7 @@
     </row>
     <row r="358" spans="1:3">
       <c r="A358">
-        <v>338</v>
+        <v>3038</v>
       </c>
       <c r="B358" t="s">
         <v>359</v>
@@ -5874,7 +6039,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>339</v>
+        <v>3039</v>
       </c>
       <c r="B359" t="s">
         <v>360</v>
@@ -5885,7 +6050,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>340</v>
+        <v>3040</v>
       </c>
       <c r="B360" t="s">
         <v>361</v>
@@ -5896,7 +6061,7 @@
     </row>
     <row r="361" spans="1:3">
       <c r="A361">
-        <v>341</v>
+        <v>3041</v>
       </c>
       <c r="B361" t="s">
         <v>362</v>
@@ -5907,7 +6072,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>342</v>
+        <v>3042</v>
       </c>
       <c r="B362" t="s">
         <v>363</v>
@@ -5918,7 +6083,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>343</v>
+        <v>3043</v>
       </c>
       <c r="B363" t="s">
         <v>364</v>
@@ -5929,7 +6094,7 @@
     </row>
     <row r="364" spans="1:3">
       <c r="A364">
-        <v>344</v>
+        <v>3044</v>
       </c>
       <c r="B364" t="s">
         <v>365</v>
@@ -5940,7 +6105,7 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>345</v>
+        <v>3045</v>
       </c>
       <c r="B365" t="s">
         <v>366</v>
@@ -5951,7 +6116,7 @@
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>346</v>
+        <v>3046</v>
       </c>
       <c r="B366" t="s">
         <v>367</v>
@@ -5962,7 +6127,7 @@
     </row>
     <row r="367" spans="1:3">
       <c r="A367">
-        <v>347</v>
+        <v>3047</v>
       </c>
       <c r="B367" t="s">
         <v>368</v>
@@ -5973,7 +6138,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>348</v>
+        <v>3048</v>
       </c>
       <c r="B368" t="s">
         <v>369</v>
@@ -5984,7 +6149,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>349</v>
+        <v>3049</v>
       </c>
       <c r="B369" t="s">
         <v>370</v>
@@ -5995,7 +6160,7 @@
     </row>
     <row r="370" spans="1:3">
       <c r="A370">
-        <v>350</v>
+        <v>3050</v>
       </c>
       <c r="B370" t="s">
         <v>371</v>
@@ -6006,7 +6171,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>351</v>
+        <v>3051</v>
       </c>
       <c r="B371" t="s">
         <v>372</v>
@@ -6017,7 +6182,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>352</v>
+        <v>3052</v>
       </c>
       <c r="B372" t="s">
         <v>373</v>
@@ -6028,7 +6193,7 @@
     </row>
     <row r="373" spans="1:3">
       <c r="A373">
-        <v>353</v>
+        <v>3053</v>
       </c>
       <c r="B373" t="s">
         <v>374</v>
@@ -6039,7 +6204,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>354</v>
+        <v>3054</v>
       </c>
       <c r="B374" t="s">
         <v>375</v>
@@ -6050,7 +6215,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>355</v>
+        <v>3055</v>
       </c>
       <c r="B375" t="s">
         <v>376</v>
@@ -6061,7 +6226,7 @@
     </row>
     <row r="376" spans="1:3">
       <c r="A376">
-        <v>356</v>
+        <v>3056</v>
       </c>
       <c r="B376" t="s">
         <v>377</v>
@@ -6072,7 +6237,7 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>357</v>
+        <v>3057</v>
       </c>
       <c r="B377" t="s">
         <v>378</v>
@@ -6083,7 +6248,7 @@
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>358</v>
+        <v>3058</v>
       </c>
       <c r="B378" t="s">
         <v>379</v>
@@ -6094,7 +6259,7 @@
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>359</v>
+        <v>3059</v>
       </c>
       <c r="B379" t="s">
         <v>380</v>
@@ -6105,7 +6270,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>360</v>
+        <v>3060</v>
       </c>
       <c r="B380" t="s">
         <v>381</v>
@@ -6116,7 +6281,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>361</v>
+        <v>3061</v>
       </c>
       <c r="B381" t="s">
         <v>382</v>
@@ -6127,7 +6292,7 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>362</v>
+        <v>3062</v>
       </c>
       <c r="B382" t="s">
         <v>383</v>
@@ -6138,7 +6303,7 @@
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>363</v>
+        <v>3063</v>
       </c>
       <c r="B383" t="s">
         <v>384</v>
@@ -6149,7 +6314,7 @@
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>364</v>
+        <v>3064</v>
       </c>
       <c r="B384" t="s">
         <v>385</v>
@@ -6160,7 +6325,7 @@
     </row>
     <row r="385" spans="1:3">
       <c r="A385">
-        <v>365</v>
+        <v>3065</v>
       </c>
       <c r="B385" t="s">
         <v>386</v>
@@ -6171,7 +6336,7 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>366</v>
+        <v>3066</v>
       </c>
       <c r="B386" t="s">
         <v>387</v>
@@ -6182,7 +6347,7 @@
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>367</v>
+        <v>3067</v>
       </c>
       <c r="B387" t="s">
         <v>388</v>
@@ -6193,7 +6358,7 @@
     </row>
     <row r="388" spans="1:3">
       <c r="A388">
-        <v>368</v>
+        <v>3068</v>
       </c>
       <c r="B388" t="s">
         <v>389</v>
@@ -6204,7 +6369,7 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>369</v>
+        <v>3069</v>
       </c>
       <c r="B389" t="s">
         <v>390</v>
@@ -6215,7 +6380,7 @@
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>370</v>
+        <v>3070</v>
       </c>
       <c r="B390" t="s">
         <v>391</v>
@@ -6226,7 +6391,7 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>371</v>
+        <v>3071</v>
       </c>
       <c r="B391" t="s">
         <v>392</v>
@@ -6237,18 +6402,18 @@
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>201</v>
+        <v>3072</v>
       </c>
       <c r="B392" t="s">
         <v>393</v>
       </c>
       <c r="C392">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>202</v>
+        <v>2001</v>
       </c>
       <c r="B393" t="s">
         <v>394</v>
@@ -6259,7 +6424,7 @@
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>203</v>
+        <v>2002</v>
       </c>
       <c r="B394" t="s">
         <v>395</v>
@@ -6270,7 +6435,7 @@
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>204</v>
+        <v>2003</v>
       </c>
       <c r="B395" t="s">
         <v>396</v>
@@ -6281,7 +6446,7 @@
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>205</v>
+        <v>2004</v>
       </c>
       <c r="B396" t="s">
         <v>397</v>
@@ -6292,7 +6457,7 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>206</v>
+        <v>2005</v>
       </c>
       <c r="B397" t="s">
         <v>398</v>
@@ -6303,7 +6468,7 @@
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>207</v>
+        <v>2006</v>
       </c>
       <c r="B398" t="s">
         <v>399</v>
@@ -6314,7 +6479,7 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>208</v>
+        <v>2007</v>
       </c>
       <c r="B399" t="s">
         <v>400</v>
@@ -6325,7 +6490,7 @@
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>209</v>
+        <v>2008</v>
       </c>
       <c r="B400" t="s">
         <v>401</v>
@@ -6336,7 +6501,7 @@
     </row>
     <row r="401" spans="1:3">
       <c r="A401">
-        <v>210</v>
+        <v>2009</v>
       </c>
       <c r="B401" t="s">
         <v>402</v>
@@ -6347,7 +6512,7 @@
     </row>
     <row r="402" spans="1:3">
       <c r="A402">
-        <v>211</v>
+        <v>2010</v>
       </c>
       <c r="B402" t="s">
         <v>403</v>
@@ -6358,7 +6523,7 @@
     </row>
     <row r="403" spans="1:3">
       <c r="A403">
-        <v>212</v>
+        <v>2011</v>
       </c>
       <c r="B403" t="s">
         <v>404</v>
@@ -6369,7 +6534,7 @@
     </row>
     <row r="404" spans="1:3">
       <c r="A404">
-        <v>213</v>
+        <v>2012</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -6380,7 +6545,7 @@
     </row>
     <row r="405" spans="1:3">
       <c r="A405">
-        <v>214</v>
+        <v>2013</v>
       </c>
       <c r="B405" t="s">
         <v>406</v>
@@ -6391,7 +6556,7 @@
     </row>
     <row r="406" spans="1:3">
       <c r="A406">
-        <v>215</v>
+        <v>2014</v>
       </c>
       <c r="B406" t="s">
         <v>407</v>
@@ -6402,7 +6567,7 @@
     </row>
     <row r="407" spans="1:3">
       <c r="A407">
-        <v>216</v>
+        <v>2015</v>
       </c>
       <c r="B407" t="s">
         <v>408</v>
@@ -6413,7 +6578,7 @@
     </row>
     <row r="408" spans="1:3">
       <c r="A408">
-        <v>217</v>
+        <v>2016</v>
       </c>
       <c r="B408" t="s">
         <v>409</v>
@@ -6424,7 +6589,7 @@
     </row>
     <row r="409" spans="1:3">
       <c r="A409">
-        <v>218</v>
+        <v>2017</v>
       </c>
       <c r="B409" t="s">
         <v>410</v>
@@ -6435,7 +6600,7 @@
     </row>
     <row r="410" spans="1:3">
       <c r="A410">
-        <v>219</v>
+        <v>2018</v>
       </c>
       <c r="B410" t="s">
         <v>411</v>
@@ -6446,7 +6611,7 @@
     </row>
     <row r="411" spans="1:3">
       <c r="A411">
-        <v>220</v>
+        <v>2019</v>
       </c>
       <c r="B411" t="s">
         <v>412</v>
@@ -6457,7 +6622,7 @@
     </row>
     <row r="412" spans="1:3">
       <c r="A412">
-        <v>221</v>
+        <v>2020</v>
       </c>
       <c r="B412" t="s">
         <v>413</v>
@@ -6468,7 +6633,7 @@
     </row>
     <row r="413" spans="1:3">
       <c r="A413">
-        <v>222</v>
+        <v>2021</v>
       </c>
       <c r="B413" t="s">
         <v>414</v>
@@ -6479,7 +6644,7 @@
     </row>
     <row r="414" spans="1:3">
       <c r="A414">
-        <v>223</v>
+        <v>2022</v>
       </c>
       <c r="B414" t="s">
         <v>415</v>
@@ -6490,7 +6655,7 @@
     </row>
     <row r="415" spans="1:3">
       <c r="A415">
-        <v>224</v>
+        <v>2023</v>
       </c>
       <c r="B415" t="s">
         <v>416</v>
@@ -6501,7 +6666,7 @@
     </row>
     <row r="416" spans="1:3">
       <c r="A416">
-        <v>225</v>
+        <v>2024</v>
       </c>
       <c r="B416" t="s">
         <v>417</v>
@@ -6512,7 +6677,7 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>226</v>
+        <v>2025</v>
       </c>
       <c r="B417" t="s">
         <v>418</v>
@@ -6523,7 +6688,7 @@
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>227</v>
+        <v>2026</v>
       </c>
       <c r="B418" t="s">
         <v>419</v>
@@ -6534,7 +6699,7 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>228</v>
+        <v>2027</v>
       </c>
       <c r="B419" t="s">
         <v>420</v>
@@ -6545,7 +6710,7 @@
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>229</v>
+        <v>2028</v>
       </c>
       <c r="B420" t="s">
         <v>421</v>
@@ -6556,7 +6721,7 @@
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>230</v>
+        <v>2029</v>
       </c>
       <c r="B421" t="s">
         <v>422</v>
@@ -6567,7 +6732,7 @@
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>231</v>
+        <v>2030</v>
       </c>
       <c r="B422" t="s">
         <v>423</v>
@@ -6578,7 +6743,7 @@
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>232</v>
+        <v>2031</v>
       </c>
       <c r="B423" t="s">
         <v>424</v>
@@ -6589,7 +6754,7 @@
     </row>
     <row r="424" spans="1:3">
       <c r="A424">
-        <v>233</v>
+        <v>2032</v>
       </c>
       <c r="B424" t="s">
         <v>425</v>
@@ -6600,7 +6765,7 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>234</v>
+        <v>2033</v>
       </c>
       <c r="B425" t="s">
         <v>426</v>
@@ -6611,7 +6776,7 @@
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>235</v>
+        <v>2034</v>
       </c>
       <c r="B426" t="s">
         <v>427</v>
@@ -6622,7 +6787,7 @@
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>236</v>
+        <v>2035</v>
       </c>
       <c r="B427" t="s">
         <v>428</v>
@@ -6633,7 +6798,7 @@
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>237</v>
+        <v>2036</v>
       </c>
       <c r="B428" t="s">
         <v>429</v>
@@ -6644,7 +6809,7 @@
     </row>
     <row r="429" spans="1:3">
       <c r="A429">
-        <v>238</v>
+        <v>2037</v>
       </c>
       <c r="B429" t="s">
         <v>430</v>
@@ -6655,7 +6820,7 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>239</v>
+        <v>2038</v>
       </c>
       <c r="B430" t="s">
         <v>431</v>
@@ -6666,7 +6831,7 @@
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>240</v>
+        <v>2039</v>
       </c>
       <c r="B431" t="s">
         <v>432</v>
@@ -6677,7 +6842,7 @@
     </row>
     <row r="432" spans="1:3">
       <c r="A432">
-        <v>241</v>
+        <v>2040</v>
       </c>
       <c r="B432" t="s">
         <v>433</v>
@@ -6688,7 +6853,7 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>242</v>
+        <v>2041</v>
       </c>
       <c r="B433" t="s">
         <v>434</v>
@@ -6699,7 +6864,7 @@
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>243</v>
+        <v>2042</v>
       </c>
       <c r="B434" t="s">
         <v>435</v>
@@ -6710,7 +6875,7 @@
     </row>
     <row r="435" spans="1:3">
       <c r="A435">
-        <v>244</v>
+        <v>2043</v>
       </c>
       <c r="B435" t="s">
         <v>436</v>
@@ -6721,7 +6886,7 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>245</v>
+        <v>2044</v>
       </c>
       <c r="B436" t="s">
         <v>437</v>
@@ -6732,7 +6897,7 @@
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>246</v>
+        <v>2045</v>
       </c>
       <c r="B437" t="s">
         <v>438</v>
@@ -6743,7 +6908,7 @@
     </row>
     <row r="438" spans="1:3">
       <c r="A438">
-        <v>247</v>
+        <v>2046</v>
       </c>
       <c r="B438" t="s">
         <v>439</v>
@@ -6754,7 +6919,7 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>248</v>
+        <v>2047</v>
       </c>
       <c r="B439" t="s">
         <v>440</v>
@@ -6765,7 +6930,7 @@
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>249</v>
+        <v>2048</v>
       </c>
       <c r="B440" t="s">
         <v>441</v>
@@ -6776,7 +6941,7 @@
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>250</v>
+        <v>2049</v>
       </c>
       <c r="B441" t="s">
         <v>442</v>
@@ -6787,7 +6952,7 @@
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>251</v>
+        <v>2050</v>
       </c>
       <c r="B442" t="s">
         <v>443</v>
@@ -6798,7 +6963,7 @@
     </row>
     <row r="443" spans="1:3">
       <c r="A443">
-        <v>252</v>
+        <v>2051</v>
       </c>
       <c r="B443" t="s">
         <v>444</v>
@@ -6809,7 +6974,7 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>253</v>
+        <v>2052</v>
       </c>
       <c r="B444" t="s">
         <v>445</v>
@@ -6820,7 +6985,7 @@
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>254</v>
+        <v>2053</v>
       </c>
       <c r="B445" t="s">
         <v>446</v>
@@ -6831,7 +6996,7 @@
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>255</v>
+        <v>2054</v>
       </c>
       <c r="B446" t="s">
         <v>447</v>
@@ -6842,7 +7007,7 @@
     </row>
     <row r="447" spans="1:3">
       <c r="A447">
-        <v>256</v>
+        <v>2055</v>
       </c>
       <c r="B447" t="s">
         <v>448</v>
@@ -6853,7 +7018,7 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>257</v>
+        <v>2056</v>
       </c>
       <c r="B448" t="s">
         <v>449</v>
@@ -6864,7 +7029,7 @@
     </row>
     <row r="449" spans="1:3">
       <c r="A449">
-        <v>258</v>
+        <v>2057</v>
       </c>
       <c r="B449" t="s">
         <v>450</v>
@@ -6875,7 +7040,7 @@
     </row>
     <row r="450" spans="1:3">
       <c r="A450">
-        <v>259</v>
+        <v>2058</v>
       </c>
       <c r="B450" t="s">
         <v>451</v>
@@ -6886,7 +7051,7 @@
     </row>
     <row r="451" spans="1:3">
       <c r="A451">
-        <v>260</v>
+        <v>2059</v>
       </c>
       <c r="B451" t="s">
         <v>452</v>
@@ -6897,7 +7062,7 @@
     </row>
     <row r="452" spans="1:3">
       <c r="A452">
-        <v>261</v>
+        <v>2060</v>
       </c>
       <c r="B452" t="s">
         <v>453</v>
@@ -6908,7 +7073,7 @@
     </row>
     <row r="453" spans="1:3">
       <c r="A453">
-        <v>262</v>
+        <v>2061</v>
       </c>
       <c r="B453" t="s">
         <v>454</v>
@@ -6919,7 +7084,7 @@
     </row>
     <row r="454" spans="1:3">
       <c r="A454">
-        <v>263</v>
+        <v>2062</v>
       </c>
       <c r="B454" t="s">
         <v>455</v>
@@ -6930,7 +7095,7 @@
     </row>
     <row r="455" spans="1:3">
       <c r="A455">
-        <v>264</v>
+        <v>2063</v>
       </c>
       <c r="B455" t="s">
         <v>456</v>
@@ -6941,7 +7106,7 @@
     </row>
     <row r="456" spans="1:3">
       <c r="A456">
-        <v>265</v>
+        <v>2064</v>
       </c>
       <c r="B456" t="s">
         <v>457</v>
@@ -6952,205 +7117,205 @@
     </row>
     <row r="457" spans="1:3">
       <c r="A457">
-        <v>101</v>
+        <v>2065</v>
       </c>
       <c r="B457" t="s">
         <v>458</v>
       </c>
       <c r="C457">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458">
-        <v>102</v>
+        <v>2066</v>
       </c>
       <c r="B458" t="s">
         <v>459</v>
       </c>
       <c r="C458">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459">
-        <v>103</v>
+        <v>2067</v>
       </c>
       <c r="B459" t="s">
         <v>460</v>
       </c>
       <c r="C459">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460">
-        <v>104</v>
+        <v>2068</v>
       </c>
       <c r="B460" t="s">
         <v>461</v>
       </c>
       <c r="C460">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461">
-        <v>105</v>
+        <v>2069</v>
       </c>
       <c r="B461" t="s">
         <v>462</v>
       </c>
       <c r="C461">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462">
-        <v>106</v>
+        <v>2070</v>
       </c>
       <c r="B462" t="s">
         <v>463</v>
       </c>
       <c r="C462">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463">
-        <v>107</v>
+        <v>2071</v>
       </c>
       <c r="B463" t="s">
         <v>464</v>
       </c>
       <c r="C463">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464">
-        <v>108</v>
+        <v>2072</v>
       </c>
       <c r="B464" t="s">
         <v>465</v>
       </c>
       <c r="C464">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>109</v>
+        <v>2073</v>
       </c>
       <c r="B465" t="s">
         <v>466</v>
       </c>
       <c r="C465">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>110</v>
+        <v>2074</v>
       </c>
       <c r="B466" t="s">
         <v>467</v>
       </c>
       <c r="C466">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467">
-        <v>111</v>
+        <v>2075</v>
       </c>
       <c r="B467" t="s">
         <v>468</v>
       </c>
       <c r="C467">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>112</v>
+        <v>2076</v>
       </c>
       <c r="B468" t="s">
         <v>469</v>
       </c>
       <c r="C468">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>113</v>
+        <v>2077</v>
       </c>
       <c r="B469" t="s">
         <v>470</v>
       </c>
       <c r="C469">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
-        <v>114</v>
+        <v>2078</v>
       </c>
       <c r="B470" t="s">
         <v>471</v>
       </c>
       <c r="C470">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471">
-        <v>115</v>
+        <v>2079</v>
       </c>
       <c r="B471" t="s">
         <v>472</v>
       </c>
       <c r="C471">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472">
-        <v>116</v>
+        <v>2080</v>
       </c>
       <c r="B472" t="s">
         <v>473</v>
       </c>
       <c r="C472">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473">
-        <v>117</v>
+        <v>2081</v>
       </c>
       <c r="B473" t="s">
         <v>474</v>
       </c>
       <c r="C473">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474">
-        <v>118</v>
+        <v>2082</v>
       </c>
       <c r="B474" t="s">
         <v>475</v>
       </c>
       <c r="C474">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475">
-        <v>119</v>
+        <v>1001</v>
       </c>
       <c r="B475" t="s">
         <v>476</v>
@@ -7161,7 +7326,7 @@
     </row>
     <row r="476" spans="1:3">
       <c r="A476">
-        <v>120</v>
+        <v>1002</v>
       </c>
       <c r="B476" t="s">
         <v>477</v>
@@ -7172,7 +7337,7 @@
     </row>
     <row r="477" spans="1:3">
       <c r="A477">
-        <v>121</v>
+        <v>1003</v>
       </c>
       <c r="B477" t="s">
         <v>478</v>
@@ -7183,7 +7348,7 @@
     </row>
     <row r="478" spans="1:3">
       <c r="A478">
-        <v>122</v>
+        <v>1004</v>
       </c>
       <c r="B478" t="s">
         <v>479</v>
@@ -7194,7 +7359,7 @@
     </row>
     <row r="479" spans="1:3">
       <c r="A479">
-        <v>123</v>
+        <v>1005</v>
       </c>
       <c r="B479" t="s">
         <v>480</v>
@@ -7205,7 +7370,7 @@
     </row>
     <row r="480" spans="1:3">
       <c r="A480">
-        <v>124</v>
+        <v>1006</v>
       </c>
       <c r="B480" t="s">
         <v>481</v>
@@ -7216,7 +7381,7 @@
     </row>
     <row r="481" spans="1:3">
       <c r="A481">
-        <v>125</v>
+        <v>1007</v>
       </c>
       <c r="B481" t="s">
         <v>482</v>
@@ -7227,7 +7392,7 @@
     </row>
     <row r="482" spans="1:3">
       <c r="A482">
-        <v>126</v>
+        <v>1008</v>
       </c>
       <c r="B482" t="s">
         <v>483</v>
@@ -7238,7 +7403,7 @@
     </row>
     <row r="483" spans="1:3">
       <c r="A483">
-        <v>127</v>
+        <v>1009</v>
       </c>
       <c r="B483" t="s">
         <v>484</v>
@@ -7249,7 +7414,7 @@
     </row>
     <row r="484" spans="1:3">
       <c r="A484">
-        <v>128</v>
+        <v>1010</v>
       </c>
       <c r="B484" t="s">
         <v>485</v>
@@ -7260,7 +7425,7 @@
     </row>
     <row r="485" spans="1:3">
       <c r="A485">
-        <v>129</v>
+        <v>1011</v>
       </c>
       <c r="B485" t="s">
         <v>486</v>
@@ -7271,7 +7436,7 @@
     </row>
     <row r="486" spans="1:3">
       <c r="A486">
-        <v>130</v>
+        <v>1012</v>
       </c>
       <c r="B486" t="s">
         <v>487</v>
@@ -7282,7 +7447,7 @@
     </row>
     <row r="487" spans="1:3">
       <c r="A487">
-        <v>131</v>
+        <v>1013</v>
       </c>
       <c r="B487" t="s">
         <v>488</v>
@@ -7293,7 +7458,7 @@
     </row>
     <row r="488" spans="1:3">
       <c r="A488">
-        <v>132</v>
+        <v>1014</v>
       </c>
       <c r="B488" t="s">
         <v>489</v>
@@ -7304,7 +7469,7 @@
     </row>
     <row r="489" spans="1:3">
       <c r="A489">
-        <v>133</v>
+        <v>1015</v>
       </c>
       <c r="B489" t="s">
         <v>490</v>
@@ -7315,7 +7480,7 @@
     </row>
     <row r="490" spans="1:3">
       <c r="A490">
-        <v>134</v>
+        <v>1016</v>
       </c>
       <c r="B490" t="s">
         <v>491</v>
@@ -7326,7 +7491,7 @@
     </row>
     <row r="491" spans="1:3">
       <c r="A491">
-        <v>135</v>
+        <v>1017</v>
       </c>
       <c r="B491" t="s">
         <v>492</v>
@@ -7337,7 +7502,7 @@
     </row>
     <row r="492" spans="1:3">
       <c r="A492">
-        <v>136</v>
+        <v>1018</v>
       </c>
       <c r="B492" t="s">
         <v>493</v>
@@ -7348,7 +7513,7 @@
     </row>
     <row r="493" spans="1:3">
       <c r="A493">
-        <v>137</v>
+        <v>1019</v>
       </c>
       <c r="B493" t="s">
         <v>494</v>
@@ -7359,7 +7524,7 @@
     </row>
     <row r="494" spans="1:3">
       <c r="A494">
-        <v>138</v>
+        <v>1020</v>
       </c>
       <c r="B494" t="s">
         <v>495</v>
@@ -7370,7 +7535,7 @@
     </row>
     <row r="495" spans="1:3">
       <c r="A495">
-        <v>139</v>
+        <v>1021</v>
       </c>
       <c r="B495" t="s">
         <v>496</v>
@@ -7381,7 +7546,7 @@
     </row>
     <row r="496" spans="1:3">
       <c r="A496">
-        <v>140</v>
+        <v>1022</v>
       </c>
       <c r="B496" t="s">
         <v>497</v>
@@ -7392,7 +7557,7 @@
     </row>
     <row r="497" spans="1:3">
       <c r="A497">
-        <v>141</v>
+        <v>1023</v>
       </c>
       <c r="B497" t="s">
         <v>498</v>
@@ -7403,7 +7568,7 @@
     </row>
     <row r="498" spans="1:3">
       <c r="A498">
-        <v>142</v>
+        <v>1024</v>
       </c>
       <c r="B498" t="s">
         <v>499</v>
@@ -7414,7 +7579,7 @@
     </row>
     <row r="499" spans="1:3">
       <c r="A499">
-        <v>143</v>
+        <v>1025</v>
       </c>
       <c r="B499" t="s">
         <v>500</v>
@@ -7425,7 +7590,7 @@
     </row>
     <row r="500" spans="1:3">
       <c r="A500">
-        <v>144</v>
+        <v>1026</v>
       </c>
       <c r="B500" t="s">
         <v>501</v>
@@ -7436,7 +7601,7 @@
     </row>
     <row r="501" spans="1:3">
       <c r="A501">
-        <v>145</v>
+        <v>1027</v>
       </c>
       <c r="B501" t="s">
         <v>502</v>
@@ -7447,7 +7612,7 @@
     </row>
     <row r="502" spans="1:3">
       <c r="A502">
-        <v>146</v>
+        <v>1028</v>
       </c>
       <c r="B502" t="s">
         <v>503</v>
@@ -7458,7 +7623,7 @@
     </row>
     <row r="503" spans="1:3">
       <c r="A503">
-        <v>147</v>
+        <v>1029</v>
       </c>
       <c r="B503" t="s">
         <v>504</v>
@@ -7469,7 +7634,7 @@
     </row>
     <row r="504" spans="1:3">
       <c r="A504">
-        <v>148</v>
+        <v>1030</v>
       </c>
       <c r="B504" t="s">
         <v>505</v>
@@ -7480,7 +7645,7 @@
     </row>
     <row r="505" spans="1:3">
       <c r="A505">
-        <v>149</v>
+        <v>1031</v>
       </c>
       <c r="B505" t="s">
         <v>506</v>
@@ -7491,7 +7656,7 @@
     </row>
     <row r="506" spans="1:3">
       <c r="A506">
-        <v>150</v>
+        <v>1032</v>
       </c>
       <c r="B506" t="s">
         <v>507</v>
@@ -7502,7 +7667,7 @@
     </row>
     <row r="507" spans="1:3">
       <c r="A507">
-        <v>151</v>
+        <v>1033</v>
       </c>
       <c r="B507" t="s">
         <v>508</v>
@@ -7513,7 +7678,7 @@
     </row>
     <row r="508" spans="1:3">
       <c r="A508">
-        <v>152</v>
+        <v>1034</v>
       </c>
       <c r="B508" t="s">
         <v>509</v>
@@ -7524,7 +7689,7 @@
     </row>
     <row r="509" spans="1:3">
       <c r="A509">
-        <v>153</v>
+        <v>1035</v>
       </c>
       <c r="B509" t="s">
         <v>510</v>
@@ -7535,7 +7700,7 @@
     </row>
     <row r="510" spans="1:3">
       <c r="A510">
-        <v>154</v>
+        <v>1036</v>
       </c>
       <c r="B510" t="s">
         <v>511</v>
@@ -7546,7 +7711,7 @@
     </row>
     <row r="511" spans="1:3">
       <c r="A511">
-        <v>155</v>
+        <v>1037</v>
       </c>
       <c r="B511" t="s">
         <v>512</v>
@@ -7557,7 +7722,7 @@
     </row>
     <row r="512" spans="1:3">
       <c r="A512">
-        <v>156</v>
+        <v>1038</v>
       </c>
       <c r="B512" t="s">
         <v>513</v>
@@ -7568,7 +7733,7 @@
     </row>
     <row r="513" spans="1:3">
       <c r="A513">
-        <v>157</v>
+        <v>1039</v>
       </c>
       <c r="B513" t="s">
         <v>514</v>
@@ -7579,7 +7744,7 @@
     </row>
     <row r="514" spans="1:3">
       <c r="A514">
-        <v>158</v>
+        <v>1040</v>
       </c>
       <c r="B514" t="s">
         <v>515</v>
@@ -7590,7 +7755,7 @@
     </row>
     <row r="515" spans="1:3">
       <c r="A515">
-        <v>159</v>
+        <v>1041</v>
       </c>
       <c r="B515" t="s">
         <v>516</v>
@@ -7601,7 +7766,7 @@
     </row>
     <row r="516" spans="1:3">
       <c r="A516">
-        <v>160</v>
+        <v>1042</v>
       </c>
       <c r="B516" t="s">
         <v>517</v>
@@ -7612,12 +7777,617 @@
     </row>
     <row r="517" spans="1:3">
       <c r="A517">
-        <v>161</v>
+        <v>1043</v>
       </c>
       <c r="B517" t="s">
         <v>518</v>
       </c>
       <c r="C517">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518">
+        <v>1044</v>
+      </c>
+      <c r="B518" t="s">
+        <v>519</v>
+      </c>
+      <c r="C518">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519">
+        <v>1045</v>
+      </c>
+      <c r="B519" t="s">
+        <v>520</v>
+      </c>
+      <c r="C519">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520">
+        <v>1046</v>
+      </c>
+      <c r="B520" t="s">
+        <v>521</v>
+      </c>
+      <c r="C520">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521">
+        <v>1047</v>
+      </c>
+      <c r="B521" t="s">
+        <v>522</v>
+      </c>
+      <c r="C521">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522">
+        <v>1048</v>
+      </c>
+      <c r="B522" t="s">
+        <v>523</v>
+      </c>
+      <c r="C522">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523">
+        <v>1049</v>
+      </c>
+      <c r="B523" t="s">
+        <v>524</v>
+      </c>
+      <c r="C523">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>1050</v>
+      </c>
+      <c r="B524" t="s">
+        <v>525</v>
+      </c>
+      <c r="C524">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525">
+        <v>1051</v>
+      </c>
+      <c r="B525" t="s">
+        <v>526</v>
+      </c>
+      <c r="C525">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526">
+        <v>1052</v>
+      </c>
+      <c r="B526" t="s">
+        <v>527</v>
+      </c>
+      <c r="C526">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527">
+        <v>1053</v>
+      </c>
+      <c r="B527" t="s">
+        <v>528</v>
+      </c>
+      <c r="C527">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528">
+        <v>1054</v>
+      </c>
+      <c r="B528" t="s">
+        <v>529</v>
+      </c>
+      <c r="C528">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529">
+        <v>1055</v>
+      </c>
+      <c r="B529" t="s">
+        <v>530</v>
+      </c>
+      <c r="C529">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530">
+        <v>1056</v>
+      </c>
+      <c r="B530" t="s">
+        <v>531</v>
+      </c>
+      <c r="C530">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531">
+        <v>1057</v>
+      </c>
+      <c r="B531" t="s">
+        <v>532</v>
+      </c>
+      <c r="C531">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532">
+        <v>1058</v>
+      </c>
+      <c r="B532" t="s">
+        <v>533</v>
+      </c>
+      <c r="C532">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533">
+        <v>1059</v>
+      </c>
+      <c r="B533" t="s">
+        <v>534</v>
+      </c>
+      <c r="C533">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534">
+        <v>1060</v>
+      </c>
+      <c r="B534" t="s">
+        <v>535</v>
+      </c>
+      <c r="C534">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535">
+        <v>1061</v>
+      </c>
+      <c r="B535" t="s">
+        <v>536</v>
+      </c>
+      <c r="C535">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536">
+        <v>1062</v>
+      </c>
+      <c r="B536" t="s">
+        <v>537</v>
+      </c>
+      <c r="C536">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537">
+        <v>1063</v>
+      </c>
+      <c r="B537" t="s">
+        <v>538</v>
+      </c>
+      <c r="C537">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538">
+        <v>1064</v>
+      </c>
+      <c r="B538" t="s">
+        <v>539</v>
+      </c>
+      <c r="C538">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539">
+        <v>1065</v>
+      </c>
+      <c r="B539" t="s">
+        <v>540</v>
+      </c>
+      <c r="C539">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540">
+        <v>1066</v>
+      </c>
+      <c r="B540" t="s">
+        <v>541</v>
+      </c>
+      <c r="C540">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541">
+        <v>1067</v>
+      </c>
+      <c r="B541" t="s">
+        <v>542</v>
+      </c>
+      <c r="C541">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542">
+        <v>1068</v>
+      </c>
+      <c r="B542" t="s">
+        <v>543</v>
+      </c>
+      <c r="C542">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543">
+        <v>1069</v>
+      </c>
+      <c r="B543" t="s">
+        <v>544</v>
+      </c>
+      <c r="C543">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544">
+        <v>1070</v>
+      </c>
+      <c r="B544" t="s">
+        <v>545</v>
+      </c>
+      <c r="C544">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545">
+        <v>1071</v>
+      </c>
+      <c r="B545" t="s">
+        <v>546</v>
+      </c>
+      <c r="C545">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546">
+        <v>1072</v>
+      </c>
+      <c r="B546" t="s">
+        <v>547</v>
+      </c>
+      <c r="C546">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547">
+        <v>1073</v>
+      </c>
+      <c r="B547" t="s">
+        <v>548</v>
+      </c>
+      <c r="C547">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548">
+        <v>1074</v>
+      </c>
+      <c r="B548" t="s">
+        <v>549</v>
+      </c>
+      <c r="C548">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>1075</v>
+      </c>
+      <c r="B549" t="s">
+        <v>550</v>
+      </c>
+      <c r="C549">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>1076</v>
+      </c>
+      <c r="B550" t="s">
+        <v>551</v>
+      </c>
+      <c r="C550">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551">
+        <v>1077</v>
+      </c>
+      <c r="B551" t="s">
+        <v>552</v>
+      </c>
+      <c r="C551">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552">
+        <v>1078</v>
+      </c>
+      <c r="B552" t="s">
+        <v>553</v>
+      </c>
+      <c r="C552">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553">
+        <v>1079</v>
+      </c>
+      <c r="B553" t="s">
+        <v>554</v>
+      </c>
+      <c r="C553">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554">
+        <v>1080</v>
+      </c>
+      <c r="B554" t="s">
+        <v>555</v>
+      </c>
+      <c r="C554">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555">
+        <v>1081</v>
+      </c>
+      <c r="B555" t="s">
+        <v>556</v>
+      </c>
+      <c r="C555">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556">
+        <v>1082</v>
+      </c>
+      <c r="B556" t="s">
+        <v>557</v>
+      </c>
+      <c r="C556">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557">
+        <v>1083</v>
+      </c>
+      <c r="B557" t="s">
+        <v>558</v>
+      </c>
+      <c r="C557">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558">
+        <v>1084</v>
+      </c>
+      <c r="B558" t="s">
+        <v>559</v>
+      </c>
+      <c r="C558">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559">
+        <v>1085</v>
+      </c>
+      <c r="B559" t="s">
+        <v>560</v>
+      </c>
+      <c r="C559">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560">
+        <v>1086</v>
+      </c>
+      <c r="B560" t="s">
+        <v>561</v>
+      </c>
+      <c r="C560">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561">
+        <v>1087</v>
+      </c>
+      <c r="B561" t="s">
+        <v>562</v>
+      </c>
+      <c r="C561">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562">
+        <v>1088</v>
+      </c>
+      <c r="B562" t="s">
+        <v>563</v>
+      </c>
+      <c r="C562">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563">
+        <v>1089</v>
+      </c>
+      <c r="B563" t="s">
+        <v>564</v>
+      </c>
+      <c r="C563">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564">
+        <v>1090</v>
+      </c>
+      <c r="B564" t="s">
+        <v>565</v>
+      </c>
+      <c r="C564">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565">
+        <v>1091</v>
+      </c>
+      <c r="B565" t="s">
+        <v>566</v>
+      </c>
+      <c r="C565">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566">
+        <v>1092</v>
+      </c>
+      <c r="B566" t="s">
+        <v>567</v>
+      </c>
+      <c r="C566">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567">
+        <v>1093</v>
+      </c>
+      <c r="B567" t="s">
+        <v>568</v>
+      </c>
+      <c r="C567">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568">
+        <v>1094</v>
+      </c>
+      <c r="B568" t="s">
+        <v>569</v>
+      </c>
+      <c r="C568">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569">
+        <v>1095</v>
+      </c>
+      <c r="B569" t="s">
+        <v>570</v>
+      </c>
+      <c r="C569">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570">
+        <v>1096</v>
+      </c>
+      <c r="B570" t="s">
+        <v>571</v>
+      </c>
+      <c r="C570">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571">
+        <v>1097</v>
+      </c>
+      <c r="B571" t="s">
+        <v>572</v>
+      </c>
+      <c r="C571">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572">
+        <v>1098</v>
+      </c>
+      <c r="B572" t="s">
+        <v>573</v>
+      </c>
+      <c r="C572">
         <v>100</v>
       </c>
     </row>
